--- a/March'21/31.03.2021/Bank Statement.xlsx
+++ b/March'21/31.03.2021/Bank Statement.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20055" windowHeight="7935" tabRatio="742" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="20055" windowHeight="7935" tabRatio="742" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="G. Cost" sheetId="45" r:id="rId1"/>
@@ -808,9 +808,6 @@
     <t>24.03.2021</t>
   </si>
   <si>
-    <t>Date :25-03-2021</t>
-  </si>
-  <si>
     <t>25.03.2021</t>
   </si>
   <si>
@@ -833,6 +830,9 @@
   </si>
   <si>
     <t>Date:01.04.2021</t>
+  </si>
+  <si>
+    <t>Date :01-04-2021</t>
   </si>
 </sst>
 </file>
@@ -3027,6 +3027,12 @@
     <xf numFmtId="0" fontId="48" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3043,12 +3049,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3823,48 +3823,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="321" t="s">
+      <c r="A1" s="323" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="321"/>
-      <c r="C1" s="321"/>
-      <c r="D1" s="321"/>
-      <c r="E1" s="321"/>
-      <c r="F1" s="321"/>
-      <c r="G1" s="321"/>
-      <c r="H1" s="321"/>
-      <c r="I1" s="321"/>
-      <c r="J1" s="321"/>
-      <c r="K1" s="321"/>
-      <c r="L1" s="321"/>
-      <c r="M1" s="321"/>
-      <c r="N1" s="321"/>
-      <c r="O1" s="321"/>
-      <c r="P1" s="321"/>
-      <c r="Q1" s="321"/>
-      <c r="R1" s="321"/>
+      <c r="B1" s="323"/>
+      <c r="C1" s="323"/>
+      <c r="D1" s="323"/>
+      <c r="E1" s="323"/>
+      <c r="F1" s="323"/>
+      <c r="G1" s="323"/>
+      <c r="H1" s="323"/>
+      <c r="I1" s="323"/>
+      <c r="J1" s="323"/>
+      <c r="K1" s="323"/>
+      <c r="L1" s="323"/>
+      <c r="M1" s="323"/>
+      <c r="N1" s="323"/>
+      <c r="O1" s="323"/>
+      <c r="P1" s="323"/>
+      <c r="Q1" s="323"/>
+      <c r="R1" s="323"/>
     </row>
     <row r="2" spans="1:25" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="322" t="s">
+      <c r="A2" s="324" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="322"/>
-      <c r="C2" s="322"/>
-      <c r="D2" s="322"/>
-      <c r="E2" s="322"/>
-      <c r="F2" s="322"/>
-      <c r="G2" s="322"/>
-      <c r="H2" s="322"/>
-      <c r="I2" s="322"/>
-      <c r="J2" s="322"/>
-      <c r="K2" s="322"/>
-      <c r="L2" s="322"/>
-      <c r="M2" s="322"/>
-      <c r="N2" s="322"/>
-      <c r="O2" s="322"/>
-      <c r="P2" s="322"/>
-      <c r="Q2" s="322"/>
-      <c r="R2" s="322"/>
+      <c r="B2" s="324"/>
+      <c r="C2" s="324"/>
+      <c r="D2" s="324"/>
+      <c r="E2" s="324"/>
+      <c r="F2" s="324"/>
+      <c r="G2" s="324"/>
+      <c r="H2" s="324"/>
+      <c r="I2" s="324"/>
+      <c r="J2" s="324"/>
+      <c r="K2" s="324"/>
+      <c r="L2" s="324"/>
+      <c r="M2" s="324"/>
+      <c r="N2" s="324"/>
+      <c r="O2" s="324"/>
+      <c r="P2" s="324"/>
+      <c r="Q2" s="324"/>
+      <c r="R2" s="324"/>
     </row>
     <row r="3" spans="1:25" s="99" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="333" t="s">
@@ -3895,34 +3895,34 @@
       <c r="Y3" s="102"/>
     </row>
     <row r="4" spans="1:25" s="102" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="323" t="s">
+      <c r="A4" s="325" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="325" t="s">
+      <c r="B4" s="327" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="325" t="s">
+      <c r="C4" s="327" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="327" t="s">
+      <c r="D4" s="321" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="327" t="s">
+      <c r="E4" s="321" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="327" t="s">
+      <c r="F4" s="321" t="s">
         <v>24</v>
       </c>
-      <c r="G4" s="327" t="s">
+      <c r="G4" s="321" t="s">
         <v>25</v>
       </c>
-      <c r="H4" s="327" t="s">
+      <c r="H4" s="321" t="s">
         <v>26</v>
       </c>
-      <c r="I4" s="327" t="s">
+      <c r="I4" s="321" t="s">
         <v>27</v>
       </c>
-      <c r="J4" s="327" t="s">
+      <c r="J4" s="321" t="s">
         <v>28</v>
       </c>
       <c r="K4" s="336" t="s">
@@ -3956,16 +3956,16 @@
       <c r="X4" s="101"/>
     </row>
     <row r="5" spans="1:25" s="102" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="324"/>
-      <c r="B5" s="326"/>
-      <c r="C5" s="326"/>
-      <c r="D5" s="328"/>
-      <c r="E5" s="328"/>
-      <c r="F5" s="328"/>
-      <c r="G5" s="328"/>
-      <c r="H5" s="328"/>
-      <c r="I5" s="328"/>
-      <c r="J5" s="328"/>
+      <c r="A5" s="326"/>
+      <c r="B5" s="328"/>
+      <c r="C5" s="328"/>
+      <c r="D5" s="322"/>
+      <c r="E5" s="322"/>
+      <c r="F5" s="322"/>
+      <c r="G5" s="322"/>
+      <c r="H5" s="322"/>
+      <c r="I5" s="322"/>
+      <c r="J5" s="322"/>
       <c r="K5" s="337"/>
       <c r="L5" s="339"/>
       <c r="M5" s="341"/>
@@ -4666,7 +4666,7 @@
     </row>
     <row r="26" spans="1:24" s="108" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="109" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B26" s="115"/>
       <c r="C26" s="116"/>
@@ -4695,7 +4695,7 @@
     </row>
     <row r="27" spans="1:24" s="108" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="116" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B27" s="115">
         <v>100</v>
@@ -4726,7 +4726,7 @@
     </row>
     <row r="28" spans="1:24" s="108" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="116" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B28" s="115"/>
       <c r="C28" s="116">
@@ -4761,7 +4761,7 @@
     </row>
     <row r="29" spans="1:24" s="108" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="116" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B29" s="115"/>
       <c r="C29" s="116">
@@ -4796,7 +4796,7 @@
     </row>
     <row r="30" spans="1:24" s="108" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="116" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B30" s="115"/>
       <c r="C30" s="116"/>
@@ -4827,7 +4827,7 @@
     </row>
     <row r="31" spans="1:24" s="108" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="116" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B31" s="115">
         <v>100</v>
@@ -7052,6 +7052,10 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="H4:H5"/>
     <mergeCell ref="I4:I5"/>
@@ -7068,10 +7072,6 @@
     <mergeCell ref="Q4:Q5"/>
     <mergeCell ref="A3:R3"/>
     <mergeCell ref="K4:K5"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -7871,7 +7871,7 @@
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" s="49" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B28" s="50">
         <v>202000</v>
@@ -7899,7 +7899,7 @@
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" s="49" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B29" s="50">
         <v>0</v>
@@ -7927,7 +7927,7 @@
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" s="49" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B30" s="50">
         <v>488000</v>
@@ -7955,7 +7955,7 @@
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31" s="49" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B31" s="72">
         <v>0</v>
@@ -7983,7 +7983,7 @@
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" s="49" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B32" s="72">
         <v>242000</v>
@@ -8011,7 +8011,7 @@
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33" s="49" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B33" s="72">
         <v>0</v>
@@ -8039,7 +8039,7 @@
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A34" s="49" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B34" s="72">
         <v>745000</v>
@@ -8067,7 +8067,7 @@
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A35" s="49" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B35" s="74">
         <v>0</v>
@@ -9187,8 +9187,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9222,7 +9222,7 @@
     </row>
     <row r="2" spans="1:12" ht="21.75" x14ac:dyDescent="0.25">
       <c r="A2" s="353" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B2" s="354"/>
       <c r="C2" s="354"/>
@@ -9587,7 +9587,7 @@
       <c r="D21" s="13"/>
       <c r="F21" s="26"/>
       <c r="J21" s="83" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="K21" s="83" t="s">
         <v>105</v>
@@ -9709,9 +9709,9 @@
   </sheetPr>
   <dimension ref="A1:V168"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S25" sqref="S25"/>
+      <selection pane="bottomLeft" activeCell="T27" sqref="T27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9822,7 +9822,7 @@
     </row>
     <row r="5" spans="1:22" s="148" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="372" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="B5" s="373"/>
       <c r="C5" s="192"/>
@@ -10003,11 +10003,11 @@
       <c r="L9" s="167"/>
       <c r="M9" s="168"/>
       <c r="N9" s="169">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="O9" s="169"/>
       <c r="P9" s="169">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="Q9" s="167"/>
       <c r="R9" s="148"/>
@@ -10042,7 +10042,7 @@
       <c r="L10" s="167"/>
       <c r="M10" s="168"/>
       <c r="N10" s="169">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="O10" s="173"/>
       <c r="P10" s="169">
@@ -10084,7 +10084,7 @@
       <c r="P11" s="169"/>
       <c r="Q11" s="174"/>
       <c r="T11" s="187" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="U11" s="187">
         <v>262</v>
@@ -10113,9 +10113,7 @@
       <c r="K12" s="171"/>
       <c r="L12" s="167"/>
       <c r="M12" s="168"/>
-      <c r="N12" s="169">
-        <v>15</v>
-      </c>
+      <c r="N12" s="169"/>
       <c r="O12" s="169">
         <v>10</v>
       </c>
@@ -10146,11 +10144,9 @@
       <c r="L13" s="167"/>
       <c r="M13" s="168"/>
       <c r="N13" s="169">
-        <v>50</v>
-      </c>
-      <c r="O13" s="169">
-        <v>5</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="O13" s="169"/>
       <c r="P13" s="169"/>
       <c r="Q13" s="174"/>
       <c r="T13" s="251"/>
@@ -10269,10 +10265,10 @@
         <v>300</v>
       </c>
       <c r="G17" s="167">
-        <v>210</v>
+        <v>150</v>
       </c>
       <c r="H17" s="171">
-        <v>200</v>
+        <v>140</v>
       </c>
       <c r="I17" s="167"/>
       <c r="J17" s="171"/>
@@ -10282,7 +10278,9 @@
       <c r="N17" s="169">
         <v>28</v>
       </c>
-      <c r="O17" s="169"/>
+      <c r="O17" s="169">
+        <v>25</v>
+      </c>
       <c r="P17" s="169">
         <v>11</v>
       </c>
@@ -10593,11 +10591,11 @@
       </c>
       <c r="G29" s="200">
         <f t="shared" si="0"/>
-        <v>360</v>
+        <v>300</v>
       </c>
       <c r="H29" s="200">
         <f t="shared" si="0"/>
-        <v>270</v>
+        <v>210</v>
       </c>
       <c r="I29" s="200">
         <f t="shared" si="0"/>
@@ -10621,15 +10619,15 @@
       </c>
       <c r="N29" s="200">
         <f t="shared" si="0"/>
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="O29" s="200">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="P29" s="200">
         <f t="shared" si="0"/>
-        <v>201</v>
+        <v>226</v>
       </c>
       <c r="Q29" s="201"/>
     </row>
@@ -12858,7 +12856,7 @@
     </row>
     <row r="2" spans="1:30" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="386" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B2" s="386"/>
       <c r="C2" s="386"/>

--- a/March'21/31.03.2021/Bank Statement.xlsx
+++ b/March'21/31.03.2021/Bank Statement.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20055" windowHeight="7935" tabRatio="742" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="20055" windowHeight="7935" tabRatio="742"/>
   </bookViews>
   <sheets>
     <sheet name="G. Cost" sheetId="45" r:id="rId1"/>
@@ -361,9 +361,6 @@
     <t>Distributor:Banglalink</t>
   </si>
   <si>
-    <t>Month :January''2021</t>
-  </si>
-  <si>
     <t>DATE</t>
   </si>
   <si>
@@ -833,6 +830,9 @@
   </si>
   <si>
     <t>Date :01-04-2021</t>
+  </si>
+  <si>
+    <t>Month :March''2021</t>
   </si>
 </sst>
 </file>
@@ -3027,6 +3027,30 @@
     <xf numFmtId="0" fontId="48" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3076,30 +3100,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3810,9 +3810,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y320"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R37" sqref="R37"/>
+      <selection pane="bottomLeft" activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3823,70 +3823,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="323" t="s">
+      <c r="A1" s="331" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="323"/>
-      <c r="C1" s="323"/>
-      <c r="D1" s="323"/>
-      <c r="E1" s="323"/>
-      <c r="F1" s="323"/>
-      <c r="G1" s="323"/>
-      <c r="H1" s="323"/>
-      <c r="I1" s="323"/>
-      <c r="J1" s="323"/>
-      <c r="K1" s="323"/>
-      <c r="L1" s="323"/>
-      <c r="M1" s="323"/>
-      <c r="N1" s="323"/>
-      <c r="O1" s="323"/>
-      <c r="P1" s="323"/>
-      <c r="Q1" s="323"/>
-      <c r="R1" s="323"/>
+      <c r="B1" s="331"/>
+      <c r="C1" s="331"/>
+      <c r="D1" s="331"/>
+      <c r="E1" s="331"/>
+      <c r="F1" s="331"/>
+      <c r="G1" s="331"/>
+      <c r="H1" s="331"/>
+      <c r="I1" s="331"/>
+      <c r="J1" s="331"/>
+      <c r="K1" s="331"/>
+      <c r="L1" s="331"/>
+      <c r="M1" s="331"/>
+      <c r="N1" s="331"/>
+      <c r="O1" s="331"/>
+      <c r="P1" s="331"/>
+      <c r="Q1" s="331"/>
+      <c r="R1" s="331"/>
     </row>
     <row r="2" spans="1:25" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="324" t="s">
+      <c r="A2" s="332" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="324"/>
-      <c r="C2" s="324"/>
-      <c r="D2" s="324"/>
-      <c r="E2" s="324"/>
-      <c r="F2" s="324"/>
-      <c r="G2" s="324"/>
-      <c r="H2" s="324"/>
-      <c r="I2" s="324"/>
-      <c r="J2" s="324"/>
-      <c r="K2" s="324"/>
-      <c r="L2" s="324"/>
-      <c r="M2" s="324"/>
-      <c r="N2" s="324"/>
-      <c r="O2" s="324"/>
-      <c r="P2" s="324"/>
-      <c r="Q2" s="324"/>
-      <c r="R2" s="324"/>
+      <c r="B2" s="332"/>
+      <c r="C2" s="332"/>
+      <c r="D2" s="332"/>
+      <c r="E2" s="332"/>
+      <c r="F2" s="332"/>
+      <c r="G2" s="332"/>
+      <c r="H2" s="332"/>
+      <c r="I2" s="332"/>
+      <c r="J2" s="332"/>
+      <c r="K2" s="332"/>
+      <c r="L2" s="332"/>
+      <c r="M2" s="332"/>
+      <c r="N2" s="332"/>
+      <c r="O2" s="332"/>
+      <c r="P2" s="332"/>
+      <c r="Q2" s="332"/>
+      <c r="R2" s="332"/>
     </row>
     <row r="3" spans="1:25" s="99" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="333" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" s="334"/>
-      <c r="C3" s="334"/>
-      <c r="D3" s="334"/>
-      <c r="E3" s="334"/>
-      <c r="F3" s="334"/>
-      <c r="G3" s="334"/>
-      <c r="H3" s="334"/>
-      <c r="I3" s="334"/>
-      <c r="J3" s="334"/>
-      <c r="K3" s="334"/>
-      <c r="L3" s="334"/>
-      <c r="M3" s="334"/>
-      <c r="N3" s="334"/>
-      <c r="O3" s="334"/>
-      <c r="P3" s="334"/>
-      <c r="Q3" s="334"/>
-      <c r="R3" s="335"/>
+      <c r="A3" s="341" t="s">
+        <v>175</v>
+      </c>
+      <c r="B3" s="342"/>
+      <c r="C3" s="342"/>
+      <c r="D3" s="342"/>
+      <c r="E3" s="342"/>
+      <c r="F3" s="342"/>
+      <c r="G3" s="342"/>
+      <c r="H3" s="342"/>
+      <c r="I3" s="342"/>
+      <c r="J3" s="342"/>
+      <c r="K3" s="342"/>
+      <c r="L3" s="342"/>
+      <c r="M3" s="342"/>
+      <c r="N3" s="342"/>
+      <c r="O3" s="342"/>
+      <c r="P3" s="342"/>
+      <c r="Q3" s="342"/>
+      <c r="R3" s="343"/>
       <c r="T3" s="100"/>
       <c r="U3" s="101"/>
       <c r="V3" s="101"/>
@@ -3895,59 +3895,59 @@
       <c r="Y3" s="102"/>
     </row>
     <row r="4" spans="1:25" s="102" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="325" t="s">
+      <c r="A4" s="333" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="335" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="327" t="s">
+      <c r="C4" s="335" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="327" t="s">
+      <c r="D4" s="329" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="321" t="s">
+      <c r="E4" s="329" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="321" t="s">
+      <c r="F4" s="329" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="321" t="s">
+      <c r="G4" s="329" t="s">
         <v>24</v>
       </c>
-      <c r="G4" s="321" t="s">
+      <c r="H4" s="329" t="s">
         <v>25</v>
       </c>
-      <c r="H4" s="321" t="s">
+      <c r="I4" s="329" t="s">
         <v>26</v>
       </c>
-      <c r="I4" s="321" t="s">
+      <c r="J4" s="329" t="s">
         <v>27</v>
       </c>
-      <c r="J4" s="321" t="s">
+      <c r="K4" s="344" t="s">
         <v>28</v>
       </c>
-      <c r="K4" s="336" t="s">
+      <c r="L4" s="321" t="s">
         <v>29</v>
       </c>
-      <c r="L4" s="338" t="s">
+      <c r="M4" s="323" t="s">
         <v>30</v>
       </c>
-      <c r="M4" s="340" t="s">
+      <c r="N4" s="325" t="s">
+        <v>9</v>
+      </c>
+      <c r="O4" s="327" t="s">
         <v>31</v>
       </c>
-      <c r="N4" s="342" t="s">
-        <v>9</v>
-      </c>
-      <c r="O4" s="344" t="s">
+      <c r="P4" s="337" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q4" s="339" t="s">
+        <v>130</v>
+      </c>
+      <c r="R4" s="103" t="s">
         <v>32</v>
-      </c>
-      <c r="P4" s="329" t="s">
-        <v>130</v>
-      </c>
-      <c r="Q4" s="331" t="s">
-        <v>131</v>
-      </c>
-      <c r="R4" s="103" t="s">
-        <v>33</v>
       </c>
       <c r="T4" s="100"/>
       <c r="U4" s="101"/>
@@ -3956,25 +3956,25 @@
       <c r="X4" s="101"/>
     </row>
     <row r="5" spans="1:25" s="102" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="326"/>
-      <c r="B5" s="328"/>
-      <c r="C5" s="328"/>
-      <c r="D5" s="322"/>
-      <c r="E5" s="322"/>
-      <c r="F5" s="322"/>
-      <c r="G5" s="322"/>
-      <c r="H5" s="322"/>
-      <c r="I5" s="322"/>
-      <c r="J5" s="322"/>
-      <c r="K5" s="337"/>
-      <c r="L5" s="339"/>
-      <c r="M5" s="341"/>
-      <c r="N5" s="343"/>
-      <c r="O5" s="345"/>
-      <c r="P5" s="330"/>
-      <c r="Q5" s="332"/>
+      <c r="A5" s="334"/>
+      <c r="B5" s="336"/>
+      <c r="C5" s="336"/>
+      <c r="D5" s="330"/>
+      <c r="E5" s="330"/>
+      <c r="F5" s="330"/>
+      <c r="G5" s="330"/>
+      <c r="H5" s="330"/>
+      <c r="I5" s="330"/>
+      <c r="J5" s="330"/>
+      <c r="K5" s="345"/>
+      <c r="L5" s="322"/>
+      <c r="M5" s="324"/>
+      <c r="N5" s="326"/>
+      <c r="O5" s="328"/>
+      <c r="P5" s="338"/>
+      <c r="Q5" s="340"/>
       <c r="R5" s="105" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="T5" s="106"/>
       <c r="U5" s="107"/>
@@ -3985,7 +3985,7 @@
     </row>
     <row r="6" spans="1:25" s="108" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="109" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B6" s="110"/>
       <c r="C6" s="111"/>
@@ -4018,7 +4018,7 @@
     </row>
     <row r="7" spans="1:25" s="108" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="109" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B7" s="110"/>
       <c r="C7" s="111"/>
@@ -4055,7 +4055,7 @@
     </row>
     <row r="8" spans="1:25" s="108" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="109" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B8" s="115"/>
       <c r="C8" s="116"/>
@@ -4085,14 +4085,14 @@
       <c r="T8" s="119"/>
       <c r="U8" s="119"/>
       <c r="V8" s="101" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="W8" s="107"/>
       <c r="X8" s="101"/>
     </row>
     <row r="9" spans="1:25" s="108" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="109" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B9" s="115"/>
       <c r="C9" s="116">
@@ -4127,7 +4127,7 @@
     </row>
     <row r="10" spans="1:25" s="108" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="109" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B10" s="115"/>
       <c r="C10" s="116"/>
@@ -4162,7 +4162,7 @@
     </row>
     <row r="11" spans="1:25" s="108" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="109" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B11" s="115"/>
       <c r="C11" s="116">
@@ -4199,7 +4199,7 @@
     </row>
     <row r="12" spans="1:25" s="108" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="109" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B12" s="115"/>
       <c r="C12" s="116"/>
@@ -4232,7 +4232,7 @@
     </row>
     <row r="13" spans="1:25" s="108" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="109" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B13" s="115"/>
       <c r="C13" s="116">
@@ -4269,7 +4269,7 @@
     </row>
     <row r="14" spans="1:25" s="108" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="109" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B14" s="115"/>
       <c r="C14" s="116"/>
@@ -4306,7 +4306,7 @@
     </row>
     <row r="15" spans="1:25" s="108" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="109" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B15" s="115"/>
       <c r="C15" s="116">
@@ -4341,7 +4341,7 @@
     </row>
     <row r="16" spans="1:25" s="108" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="109" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B16" s="115"/>
       <c r="C16" s="116"/>
@@ -4374,7 +4374,7 @@
     </row>
     <row r="17" spans="1:24" s="108" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="109" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B17" s="115"/>
       <c r="C17" s="116"/>
@@ -4407,7 +4407,7 @@
     </row>
     <row r="18" spans="1:24" s="108" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="109" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B18" s="115"/>
       <c r="C18" s="116"/>
@@ -4440,7 +4440,7 @@
     </row>
     <row r="19" spans="1:24" s="108" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="109" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B19" s="115"/>
       <c r="C19" s="116"/>
@@ -4473,7 +4473,7 @@
     </row>
     <row r="20" spans="1:24" s="108" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="109" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B20" s="115"/>
       <c r="C20" s="116"/>
@@ -4508,7 +4508,7 @@
     </row>
     <row r="21" spans="1:24" s="108" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="109" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B21" s="115"/>
       <c r="C21" s="116"/>
@@ -4537,7 +4537,7 @@
     </row>
     <row r="22" spans="1:24" s="108" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="109" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B22" s="115"/>
       <c r="C22" s="116"/>
@@ -4568,7 +4568,7 @@
     </row>
     <row r="23" spans="1:24" s="117" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="109" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B23" s="115"/>
       <c r="C23" s="116"/>
@@ -4601,7 +4601,7 @@
     </row>
     <row r="24" spans="1:24" s="108" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="109" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B24" s="115"/>
       <c r="C24" s="116"/>
@@ -4635,7 +4635,7 @@
     </row>
     <row r="25" spans="1:24" s="117" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="109" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B25" s="115"/>
       <c r="C25" s="116"/>
@@ -4666,7 +4666,7 @@
     </row>
     <row r="26" spans="1:24" s="108" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="109" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B26" s="115"/>
       <c r="C26" s="116"/>
@@ -4695,7 +4695,7 @@
     </row>
     <row r="27" spans="1:24" s="108" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="116" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B27" s="115">
         <v>100</v>
@@ -4726,7 +4726,7 @@
     </row>
     <row r="28" spans="1:24" s="108" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="116" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B28" s="115"/>
       <c r="C28" s="116">
@@ -4761,7 +4761,7 @@
     </row>
     <row r="29" spans="1:24" s="108" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="116" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B29" s="115"/>
       <c r="C29" s="116">
@@ -4796,7 +4796,7 @@
     </row>
     <row r="30" spans="1:24" s="108" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="116" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B30" s="115"/>
       <c r="C30" s="116"/>
@@ -4827,7 +4827,7 @@
     </row>
     <row r="31" spans="1:24" s="108" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="116" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B31" s="115">
         <v>100</v>
@@ -4987,7 +4987,7 @@
     </row>
     <row r="37" spans="1:19" s="135" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="130" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37" s="131">
         <f>SUM(B6:B36)</f>
@@ -5146,1904 +5146,1904 @@
       <c r="D48" s="140"/>
       <c r="E48" s="140"/>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="140"/>
       <c r="B49" s="140"/>
       <c r="C49" s="140"/>
       <c r="D49" s="140"/>
       <c r="E49" s="140"/>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="140"/>
       <c r="B50" s="140"/>
       <c r="C50" s="140"/>
       <c r="D50" s="140"/>
       <c r="E50" s="140"/>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="140"/>
       <c r="B51" s="140"/>
       <c r="C51" s="140"/>
       <c r="D51" s="140"/>
       <c r="E51" s="140"/>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="140"/>
       <c r="B52" s="140"/>
       <c r="C52" s="140"/>
       <c r="D52" s="140"/>
       <c r="E52" s="140"/>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="140"/>
       <c r="B53" s="140"/>
       <c r="C53" s="140"/>
       <c r="D53" s="140"/>
       <c r="E53" s="140"/>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="140"/>
       <c r="B54" s="140"/>
       <c r="C54" s="140"/>
       <c r="D54" s="140"/>
       <c r="E54" s="140"/>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="140"/>
       <c r="B55" s="140"/>
       <c r="C55" s="140"/>
       <c r="D55" s="140"/>
       <c r="E55" s="140"/>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="140"/>
       <c r="B56" s="140"/>
       <c r="C56" s="140"/>
       <c r="D56" s="140"/>
       <c r="E56" s="140"/>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="140"/>
       <c r="B57" s="140"/>
       <c r="C57" s="140"/>
       <c r="D57" s="140"/>
       <c r="E57" s="140"/>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="140"/>
       <c r="B58" s="140"/>
       <c r="C58" s="140"/>
       <c r="D58" s="140"/>
       <c r="E58" s="140"/>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="140"/>
       <c r="B59" s="140"/>
       <c r="C59" s="140"/>
       <c r="D59" s="140"/>
       <c r="E59" s="140"/>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="140"/>
       <c r="B60" s="140"/>
       <c r="C60" s="140"/>
       <c r="D60" s="140"/>
       <c r="E60" s="140"/>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="140"/>
       <c r="B61" s="140"/>
       <c r="C61" s="140"/>
       <c r="D61" s="140"/>
       <c r="E61" s="140"/>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="140"/>
       <c r="B62" s="140"/>
       <c r="C62" s="140"/>
       <c r="D62" s="140"/>
       <c r="E62" s="140"/>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="140"/>
       <c r="B63" s="140"/>
       <c r="C63" s="140"/>
       <c r="D63" s="140"/>
       <c r="E63" s="140"/>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="140"/>
       <c r="B64" s="140"/>
       <c r="C64" s="140"/>
       <c r="D64" s="140"/>
       <c r="E64" s="140"/>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="140"/>
       <c r="B65" s="140"/>
       <c r="C65" s="140"/>
       <c r="D65" s="140"/>
       <c r="E65" s="140"/>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="140"/>
       <c r="B66" s="140"/>
       <c r="C66" s="140"/>
       <c r="D66" s="140"/>
       <c r="E66" s="140"/>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="140"/>
       <c r="B67" s="140"/>
       <c r="C67" s="140"/>
       <c r="D67" s="140"/>
       <c r="E67" s="140"/>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="140"/>
       <c r="B68" s="140"/>
       <c r="C68" s="140"/>
       <c r="D68" s="140"/>
       <c r="E68" s="140"/>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="140"/>
       <c r="B69" s="140"/>
       <c r="C69" s="140"/>
       <c r="D69" s="140"/>
       <c r="E69" s="140"/>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="140"/>
       <c r="B70" s="140"/>
       <c r="C70" s="140"/>
       <c r="D70" s="140"/>
       <c r="E70" s="140"/>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="140"/>
       <c r="B71" s="140"/>
       <c r="C71" s="140"/>
       <c r="D71" s="140"/>
       <c r="E71" s="140"/>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="140"/>
       <c r="B72" s="140"/>
       <c r="C72" s="140"/>
       <c r="D72" s="140"/>
       <c r="E72" s="140"/>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="140"/>
       <c r="B73" s="140"/>
       <c r="C73" s="140"/>
       <c r="D73" s="140"/>
       <c r="E73" s="140"/>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="140"/>
       <c r="B74" s="140"/>
       <c r="C74" s="140"/>
       <c r="D74" s="140"/>
       <c r="E74" s="140"/>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="140"/>
       <c r="B75" s="140"/>
       <c r="C75" s="140"/>
       <c r="D75" s="140"/>
       <c r="E75" s="140"/>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="140"/>
       <c r="B76" s="140"/>
       <c r="C76" s="140"/>
       <c r="D76" s="140"/>
       <c r="E76" s="140"/>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="140"/>
       <c r="B77" s="140"/>
       <c r="C77" s="140"/>
       <c r="D77" s="140"/>
       <c r="E77" s="140"/>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="140"/>
       <c r="B78" s="140"/>
       <c r="C78" s="140"/>
       <c r="D78" s="140"/>
       <c r="E78" s="140"/>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="140"/>
       <c r="B79" s="140"/>
       <c r="C79" s="140"/>
       <c r="D79" s="140"/>
       <c r="E79" s="140"/>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="140"/>
       <c r="B80" s="140"/>
       <c r="C80" s="140"/>
       <c r="D80" s="140"/>
       <c r="E80" s="140"/>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="140"/>
       <c r="B81" s="140"/>
       <c r="C81" s="140"/>
       <c r="D81" s="140"/>
       <c r="E81" s="140"/>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" s="140"/>
       <c r="B82" s="140"/>
       <c r="C82" s="140"/>
       <c r="D82" s="140"/>
       <c r="E82" s="140"/>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" s="140"/>
       <c r="B83" s="140"/>
       <c r="C83" s="140"/>
       <c r="D83" s="140"/>
       <c r="E83" s="140"/>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="140"/>
       <c r="B84" s="140"/>
       <c r="C84" s="140"/>
       <c r="D84" s="140"/>
       <c r="E84" s="140"/>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="140"/>
       <c r="B85" s="140"/>
       <c r="C85" s="140"/>
       <c r="D85" s="140"/>
       <c r="E85" s="140"/>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86" s="140"/>
       <c r="B86" s="140"/>
       <c r="C86" s="140"/>
       <c r="D86" s="140"/>
       <c r="E86" s="140"/>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87" s="140"/>
       <c r="B87" s="140"/>
       <c r="C87" s="140"/>
       <c r="D87" s="140"/>
       <c r="E87" s="140"/>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88" s="140"/>
       <c r="B88" s="140"/>
       <c r="C88" s="140"/>
       <c r="D88" s="140"/>
       <c r="E88" s="140"/>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A89" s="140"/>
       <c r="B89" s="140"/>
       <c r="C89" s="140"/>
       <c r="D89" s="140"/>
       <c r="E89" s="140"/>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A90" s="140"/>
       <c r="B90" s="140"/>
       <c r="C90" s="140"/>
       <c r="D90" s="140"/>
       <c r="E90" s="140"/>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A91" s="140"/>
       <c r="B91" s="140"/>
       <c r="C91" s="140"/>
       <c r="D91" s="140"/>
       <c r="E91" s="140"/>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A92" s="140"/>
       <c r="B92" s="140"/>
       <c r="C92" s="140"/>
       <c r="D92" s="140"/>
       <c r="E92" s="140"/>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A93" s="140"/>
       <c r="B93" s="140"/>
       <c r="C93" s="140"/>
       <c r="D93" s="140"/>
       <c r="E93" s="140"/>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A94" s="140"/>
       <c r="B94" s="140"/>
       <c r="C94" s="140"/>
       <c r="D94" s="140"/>
       <c r="E94" s="140"/>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A95" s="140"/>
       <c r="B95" s="140"/>
       <c r="C95" s="140"/>
       <c r="D95" s="140"/>
       <c r="E95" s="140"/>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A96" s="140"/>
       <c r="B96" s="140"/>
       <c r="C96" s="140"/>
       <c r="D96" s="140"/>
       <c r="E96" s="140"/>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A97" s="140"/>
       <c r="B97" s="140"/>
       <c r="C97" s="140"/>
       <c r="D97" s="140"/>
       <c r="E97" s="140"/>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A98" s="140"/>
       <c r="B98" s="140"/>
       <c r="C98" s="140"/>
       <c r="D98" s="140"/>
       <c r="E98" s="140"/>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A99" s="140"/>
       <c r="B99" s="140"/>
       <c r="C99" s="140"/>
       <c r="D99" s="140"/>
       <c r="E99" s="140"/>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A100" s="140"/>
       <c r="B100" s="140"/>
       <c r="C100" s="140"/>
       <c r="D100" s="140"/>
       <c r="E100" s="140"/>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A101" s="140"/>
       <c r="B101" s="140"/>
       <c r="C101" s="140"/>
       <c r="D101" s="140"/>
       <c r="E101" s="140"/>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A102" s="140"/>
       <c r="B102" s="140"/>
       <c r="C102" s="140"/>
       <c r="D102" s="140"/>
       <c r="E102" s="140"/>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A103" s="140"/>
       <c r="B103" s="140"/>
       <c r="C103" s="140"/>
       <c r="D103" s="140"/>
       <c r="E103" s="140"/>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:5" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A104" s="140"/>
       <c r="B104" s="140"/>
       <c r="C104" s="140"/>
       <c r="D104" s="140"/>
       <c r="E104" s="140"/>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:5" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A105" s="140"/>
       <c r="B105" s="140"/>
       <c r="C105" s="140"/>
       <c r="D105" s="140"/>
       <c r="E105" s="140"/>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:5" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A106" s="140"/>
       <c r="B106" s="140"/>
       <c r="C106" s="140"/>
       <c r="D106" s="140"/>
       <c r="E106" s="140"/>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:5" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A107" s="140"/>
       <c r="B107" s="140"/>
       <c r="C107" s="140"/>
       <c r="D107" s="140"/>
       <c r="E107" s="140"/>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:5" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A108" s="140"/>
       <c r="B108" s="140"/>
       <c r="C108" s="140"/>
       <c r="D108" s="140"/>
       <c r="E108" s="140"/>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:5" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A109" s="140"/>
       <c r="B109" s="140"/>
       <c r="C109" s="140"/>
       <c r="D109" s="140"/>
       <c r="E109" s="140"/>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:5" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A110" s="140"/>
       <c r="B110" s="140"/>
       <c r="C110" s="140"/>
       <c r="D110" s="140"/>
       <c r="E110" s="140"/>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:5" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A111" s="140"/>
       <c r="B111" s="140"/>
       <c r="C111" s="140"/>
       <c r="D111" s="140"/>
       <c r="E111" s="140"/>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:5" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A112" s="140"/>
       <c r="B112" s="140"/>
       <c r="C112" s="140"/>
       <c r="D112" s="140"/>
       <c r="E112" s="140"/>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:5" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A113" s="140"/>
       <c r="B113" s="140"/>
       <c r="C113" s="140"/>
       <c r="D113" s="140"/>
       <c r="E113" s="140"/>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:5" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A114" s="140"/>
       <c r="B114" s="140"/>
       <c r="C114" s="140"/>
       <c r="D114" s="140"/>
       <c r="E114" s="140"/>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:5" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A115" s="140"/>
       <c r="B115" s="140"/>
       <c r="C115" s="140"/>
       <c r="D115" s="140"/>
       <c r="E115" s="140"/>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:5" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A116" s="140"/>
       <c r="B116" s="140"/>
       <c r="C116" s="140"/>
       <c r="D116" s="140"/>
       <c r="E116" s="140"/>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:5" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A117" s="140"/>
       <c r="B117" s="140"/>
       <c r="C117" s="140"/>
       <c r="D117" s="140"/>
       <c r="E117" s="140"/>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:5" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A118" s="140"/>
       <c r="B118" s="140"/>
       <c r="C118" s="140"/>
       <c r="D118" s="140"/>
       <c r="E118" s="140"/>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:5" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A119" s="140"/>
       <c r="B119" s="140"/>
       <c r="C119" s="140"/>
       <c r="D119" s="140"/>
       <c r="E119" s="140"/>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:5" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A120" s="140"/>
       <c r="B120" s="140"/>
       <c r="C120" s="140"/>
       <c r="D120" s="140"/>
       <c r="E120" s="140"/>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:5" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A121" s="140"/>
       <c r="B121" s="140"/>
       <c r="C121" s="140"/>
       <c r="D121" s="140"/>
       <c r="E121" s="140"/>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:5" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A122" s="140"/>
       <c r="B122" s="140"/>
       <c r="C122" s="140"/>
       <c r="D122" s="140"/>
       <c r="E122" s="140"/>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:5" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A123" s="140"/>
       <c r="B123" s="140"/>
       <c r="C123" s="140"/>
       <c r="D123" s="140"/>
       <c r="E123" s="140"/>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:5" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A124" s="140"/>
       <c r="B124" s="140"/>
       <c r="C124" s="140"/>
       <c r="D124" s="140"/>
       <c r="E124" s="140"/>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:5" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A125" s="140"/>
       <c r="B125" s="140"/>
       <c r="C125" s="140"/>
       <c r="D125" s="140"/>
       <c r="E125" s="140"/>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:5" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A126" s="140"/>
       <c r="B126" s="140"/>
       <c r="C126" s="140"/>
       <c r="D126" s="140"/>
       <c r="E126" s="140"/>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:5" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A127" s="140"/>
       <c r="B127" s="140"/>
       <c r="C127" s="140"/>
       <c r="D127" s="140"/>
       <c r="E127" s="140"/>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:5" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A128" s="140"/>
       <c r="B128" s="140"/>
       <c r="C128" s="140"/>
       <c r="D128" s="140"/>
       <c r="E128" s="140"/>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:5" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A129" s="140"/>
       <c r="B129" s="140"/>
       <c r="C129" s="140"/>
       <c r="D129" s="140"/>
       <c r="E129" s="140"/>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:5" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A130" s="140"/>
       <c r="B130" s="140"/>
       <c r="C130" s="140"/>
       <c r="D130" s="140"/>
       <c r="E130" s="140"/>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:5" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A131" s="140"/>
       <c r="B131" s="140"/>
       <c r="C131" s="140"/>
       <c r="D131" s="140"/>
       <c r="E131" s="140"/>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:5" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A132" s="140"/>
       <c r="B132" s="140"/>
       <c r="C132" s="140"/>
       <c r="D132" s="140"/>
       <c r="E132" s="140"/>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:5" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A133" s="140"/>
       <c r="B133" s="140"/>
       <c r="C133" s="140"/>
       <c r="D133" s="140"/>
       <c r="E133" s="140"/>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:5" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A134" s="140"/>
       <c r="B134" s="140"/>
       <c r="C134" s="140"/>
       <c r="D134" s="140"/>
       <c r="E134" s="140"/>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:5" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A135" s="140"/>
       <c r="B135" s="140"/>
       <c r="C135" s="140"/>
       <c r="D135" s="140"/>
       <c r="E135" s="140"/>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:5" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A136" s="140"/>
       <c r="B136" s="140"/>
       <c r="C136" s="140"/>
       <c r="D136" s="140"/>
       <c r="E136" s="140"/>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:5" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A137" s="140"/>
       <c r="B137" s="140"/>
       <c r="C137" s="140"/>
       <c r="D137" s="140"/>
       <c r="E137" s="140"/>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:5" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A138" s="140"/>
       <c r="B138" s="140"/>
       <c r="C138" s="140"/>
       <c r="D138" s="140"/>
       <c r="E138" s="140"/>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:5" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A139" s="140"/>
       <c r="B139" s="140"/>
       <c r="C139" s="140"/>
       <c r="D139" s="140"/>
       <c r="E139" s="140"/>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:5" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A140" s="140"/>
       <c r="B140" s="140"/>
       <c r="C140" s="140"/>
       <c r="D140" s="140"/>
       <c r="E140" s="140"/>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:5" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A141" s="140"/>
       <c r="B141" s="140"/>
       <c r="C141" s="140"/>
       <c r="D141" s="140"/>
       <c r="E141" s="140"/>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:5" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A142" s="140"/>
       <c r="B142" s="140"/>
       <c r="C142" s="140"/>
       <c r="D142" s="140"/>
       <c r="E142" s="140"/>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:5" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A143" s="140"/>
       <c r="B143" s="140"/>
       <c r="C143" s="140"/>
       <c r="D143" s="140"/>
       <c r="E143" s="140"/>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:5" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A144" s="140"/>
       <c r="B144" s="140"/>
       <c r="C144" s="140"/>
       <c r="D144" s="140"/>
       <c r="E144" s="140"/>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:5" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A145" s="140"/>
       <c r="B145" s="140"/>
       <c r="C145" s="140"/>
       <c r="D145" s="140"/>
       <c r="E145" s="140"/>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:5" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A146" s="140"/>
       <c r="B146" s="140"/>
       <c r="C146" s="140"/>
       <c r="D146" s="140"/>
       <c r="E146" s="140"/>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:5" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A147" s="140"/>
       <c r="B147" s="140"/>
       <c r="C147" s="140"/>
       <c r="D147" s="140"/>
       <c r="E147" s="140"/>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:5" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A148" s="140"/>
       <c r="B148" s="140"/>
       <c r="C148" s="140"/>
       <c r="D148" s="140"/>
       <c r="E148" s="140"/>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:5" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A149" s="140"/>
       <c r="B149" s="140"/>
       <c r="C149" s="140"/>
       <c r="D149" s="140"/>
       <c r="E149" s="140"/>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:5" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A150" s="140"/>
       <c r="B150" s="140"/>
       <c r="C150" s="140"/>
       <c r="D150" s="140"/>
       <c r="E150" s="140"/>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:5" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A151" s="140"/>
       <c r="B151" s="140"/>
       <c r="C151" s="140"/>
       <c r="D151" s="140"/>
       <c r="E151" s="140"/>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:5" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A152" s="140"/>
       <c r="B152" s="140"/>
       <c r="C152" s="140"/>
       <c r="D152" s="140"/>
       <c r="E152" s="140"/>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:5" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A153" s="140"/>
       <c r="B153" s="140"/>
       <c r="C153" s="140"/>
       <c r="D153" s="140"/>
       <c r="E153" s="140"/>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:5" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A154" s="140"/>
       <c r="B154" s="140"/>
       <c r="C154" s="140"/>
       <c r="D154" s="140"/>
       <c r="E154" s="140"/>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:5" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A155" s="140"/>
       <c r="B155" s="140"/>
       <c r="C155" s="140"/>
       <c r="D155" s="140"/>
       <c r="E155" s="140"/>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:5" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A156" s="140"/>
       <c r="B156" s="140"/>
       <c r="C156" s="140"/>
       <c r="D156" s="140"/>
       <c r="E156" s="140"/>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:5" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A157" s="140"/>
       <c r="B157" s="140"/>
       <c r="C157" s="140"/>
       <c r="D157" s="140"/>
       <c r="E157" s="140"/>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:5" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A158" s="140"/>
       <c r="B158" s="140"/>
       <c r="C158" s="140"/>
       <c r="D158" s="140"/>
       <c r="E158" s="140"/>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:5" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A159" s="140"/>
       <c r="B159" s="140"/>
       <c r="C159" s="140"/>
       <c r="D159" s="140"/>
       <c r="E159" s="140"/>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:5" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A160" s="140"/>
       <c r="B160" s="140"/>
       <c r="C160" s="140"/>
       <c r="D160" s="140"/>
       <c r="E160" s="140"/>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:5" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A161" s="140"/>
       <c r="B161" s="140"/>
       <c r="C161" s="140"/>
       <c r="D161" s="140"/>
       <c r="E161" s="140"/>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:5" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A162" s="140"/>
       <c r="B162" s="140"/>
       <c r="C162" s="140"/>
       <c r="D162" s="140"/>
       <c r="E162" s="140"/>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:5" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A163" s="140"/>
       <c r="B163" s="140"/>
       <c r="C163" s="140"/>
       <c r="D163" s="140"/>
       <c r="E163" s="140"/>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:5" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A164" s="140"/>
       <c r="B164" s="140"/>
       <c r="C164" s="140"/>
       <c r="D164" s="140"/>
       <c r="E164" s="140"/>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:5" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A165" s="140"/>
       <c r="B165" s="140"/>
       <c r="C165" s="140"/>
       <c r="D165" s="140"/>
       <c r="E165" s="140"/>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:5" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A166" s="140"/>
       <c r="B166" s="140"/>
       <c r="C166" s="140"/>
       <c r="D166" s="140"/>
       <c r="E166" s="140"/>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:5" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A167" s="140"/>
       <c r="B167" s="140"/>
       <c r="C167" s="140"/>
       <c r="D167" s="140"/>
       <c r="E167" s="140"/>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:5" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A168" s="140"/>
       <c r="B168" s="140"/>
       <c r="C168" s="140"/>
       <c r="D168" s="140"/>
       <c r="E168" s="140"/>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:5" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A169" s="140"/>
       <c r="B169" s="140"/>
       <c r="C169" s="140"/>
       <c r="D169" s="140"/>
       <c r="E169" s="140"/>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:5" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A170" s="140"/>
       <c r="B170" s="140"/>
       <c r="C170" s="140"/>
       <c r="D170" s="140"/>
       <c r="E170" s="140"/>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:5" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A171" s="140"/>
       <c r="B171" s="140"/>
       <c r="C171" s="140"/>
       <c r="D171" s="140"/>
       <c r="E171" s="140"/>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:5" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A172" s="140"/>
       <c r="B172" s="140"/>
       <c r="C172" s="140"/>
       <c r="D172" s="140"/>
       <c r="E172" s="140"/>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:5" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A173" s="140"/>
       <c r="B173" s="140"/>
       <c r="C173" s="140"/>
       <c r="D173" s="140"/>
       <c r="E173" s="140"/>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:5" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A174" s="140"/>
       <c r="B174" s="140"/>
       <c r="C174" s="140"/>
       <c r="D174" s="140"/>
       <c r="E174" s="140"/>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:5" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A175" s="140"/>
       <c r="B175" s="140"/>
       <c r="C175" s="140"/>
       <c r="D175" s="140"/>
       <c r="E175" s="140"/>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:5" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A176" s="140"/>
       <c r="B176" s="140"/>
       <c r="C176" s="140"/>
       <c r="D176" s="140"/>
       <c r="E176" s="140"/>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:5" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A177" s="140"/>
       <c r="B177" s="140"/>
       <c r="C177" s="140"/>
       <c r="D177" s="140"/>
       <c r="E177" s="140"/>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:5" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A178" s="140"/>
       <c r="B178" s="140"/>
       <c r="C178" s="140"/>
       <c r="D178" s="140"/>
       <c r="E178" s="140"/>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:5" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A179" s="140"/>
       <c r="B179" s="140"/>
       <c r="C179" s="140"/>
       <c r="D179" s="140"/>
       <c r="E179" s="140"/>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:5" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A180" s="140"/>
       <c r="B180" s="140"/>
       <c r="C180" s="140"/>
       <c r="D180" s="140"/>
       <c r="E180" s="140"/>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:5" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A181" s="140"/>
       <c r="B181" s="140"/>
       <c r="C181" s="140"/>
       <c r="D181" s="140"/>
       <c r="E181" s="140"/>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:5" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A182" s="140"/>
       <c r="B182" s="140"/>
       <c r="C182" s="140"/>
       <c r="D182" s="140"/>
       <c r="E182" s="140"/>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:5" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A183" s="140"/>
       <c r="B183" s="140"/>
       <c r="C183" s="140"/>
       <c r="D183" s="140"/>
       <c r="E183" s="140"/>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:5" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A184" s="140"/>
       <c r="B184" s="140"/>
       <c r="C184" s="140"/>
       <c r="D184" s="140"/>
       <c r="E184" s="140"/>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:5" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A185" s="140"/>
       <c r="B185" s="140"/>
       <c r="C185" s="140"/>
       <c r="D185" s="140"/>
       <c r="E185" s="140"/>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:5" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A186" s="140"/>
       <c r="B186" s="140"/>
       <c r="C186" s="140"/>
       <c r="D186" s="140"/>
       <c r="E186" s="140"/>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:5" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A187" s="140"/>
       <c r="B187" s="140"/>
       <c r="C187" s="140"/>
       <c r="D187" s="140"/>
       <c r="E187" s="140"/>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:5" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A188" s="140"/>
       <c r="B188" s="140"/>
       <c r="C188" s="140"/>
       <c r="D188" s="140"/>
       <c r="E188" s="140"/>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:5" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A189" s="140"/>
       <c r="B189" s="140"/>
       <c r="C189" s="140"/>
       <c r="D189" s="140"/>
       <c r="E189" s="140"/>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:5" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A190" s="140"/>
       <c r="B190" s="140"/>
       <c r="C190" s="140"/>
       <c r="D190" s="140"/>
       <c r="E190" s="140"/>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:5" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A191" s="140"/>
       <c r="B191" s="140"/>
       <c r="C191" s="140"/>
       <c r="D191" s="140"/>
       <c r="E191" s="140"/>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:5" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A192" s="140"/>
       <c r="B192" s="140"/>
       <c r="C192" s="140"/>
       <c r="D192" s="140"/>
       <c r="E192" s="140"/>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:5" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A193" s="140"/>
       <c r="B193" s="140"/>
       <c r="C193" s="140"/>
       <c r="D193" s="140"/>
       <c r="E193" s="140"/>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:5" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A194" s="140"/>
       <c r="B194" s="140"/>
       <c r="C194" s="140"/>
       <c r="D194" s="140"/>
       <c r="E194" s="140"/>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:5" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A195" s="140"/>
       <c r="B195" s="140"/>
       <c r="C195" s="140"/>
       <c r="D195" s="140"/>
       <c r="E195" s="140"/>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:5" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A196" s="140"/>
       <c r="B196" s="140"/>
       <c r="C196" s="140"/>
       <c r="D196" s="140"/>
       <c r="E196" s="140"/>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:5" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A197" s="140"/>
       <c r="B197" s="140"/>
       <c r="C197" s="140"/>
       <c r="D197" s="140"/>
       <c r="E197" s="140"/>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:5" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A198" s="140"/>
       <c r="B198" s="140"/>
       <c r="C198" s="140"/>
       <c r="D198" s="140"/>
       <c r="E198" s="140"/>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:5" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A199" s="140"/>
       <c r="B199" s="140"/>
       <c r="C199" s="140"/>
       <c r="D199" s="140"/>
       <c r="E199" s="140"/>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:5" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A200" s="140"/>
       <c r="B200" s="140"/>
       <c r="C200" s="140"/>
       <c r="D200" s="140"/>
       <c r="E200" s="140"/>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:5" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A201" s="140"/>
       <c r="B201" s="140"/>
       <c r="C201" s="140"/>
       <c r="D201" s="140"/>
       <c r="E201" s="140"/>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:5" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A202" s="140"/>
       <c r="B202" s="140"/>
       <c r="C202" s="140"/>
       <c r="D202" s="140"/>
       <c r="E202" s="140"/>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:5" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A203" s="140"/>
       <c r="B203" s="140"/>
       <c r="C203" s="140"/>
       <c r="D203" s="140"/>
       <c r="E203" s="140"/>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:5" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A204" s="140"/>
       <c r="B204" s="140"/>
       <c r="C204" s="140"/>
       <c r="D204" s="140"/>
       <c r="E204" s="140"/>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:5" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A205" s="140"/>
       <c r="B205" s="140"/>
       <c r="C205" s="140"/>
       <c r="D205" s="140"/>
       <c r="E205" s="140"/>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:5" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A206" s="140"/>
       <c r="B206" s="140"/>
       <c r="C206" s="140"/>
       <c r="D206" s="140"/>
       <c r="E206" s="140"/>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:5" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A207" s="140"/>
       <c r="B207" s="140"/>
       <c r="C207" s="140"/>
       <c r="D207" s="140"/>
       <c r="E207" s="140"/>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:5" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A208" s="140"/>
       <c r="B208" s="140"/>
       <c r="C208" s="140"/>
       <c r="D208" s="140"/>
       <c r="E208" s="140"/>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:5" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A209" s="140"/>
       <c r="B209" s="140"/>
       <c r="C209" s="140"/>
       <c r="D209" s="140"/>
       <c r="E209" s="140"/>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:5" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A210" s="140"/>
       <c r="B210" s="140"/>
       <c r="C210" s="140"/>
       <c r="D210" s="140"/>
       <c r="E210" s="140"/>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:5" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A211" s="140"/>
       <c r="B211" s="140"/>
       <c r="C211" s="140"/>
       <c r="D211" s="140"/>
       <c r="E211" s="140"/>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:5" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A212" s="140"/>
       <c r="B212" s="140"/>
       <c r="C212" s="140"/>
       <c r="D212" s="140"/>
       <c r="E212" s="140"/>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:5" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A213" s="140"/>
       <c r="B213" s="140"/>
       <c r="C213" s="140"/>
       <c r="D213" s="140"/>
       <c r="E213" s="140"/>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:5" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A214" s="140"/>
       <c r="B214" s="140"/>
       <c r="C214" s="140"/>
       <c r="D214" s="140"/>
       <c r="E214" s="140"/>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:5" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A215" s="140"/>
       <c r="B215" s="140"/>
       <c r="C215" s="140"/>
       <c r="D215" s="140"/>
       <c r="E215" s="140"/>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:5" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A216" s="140"/>
       <c r="B216" s="140"/>
       <c r="C216" s="140"/>
       <c r="D216" s="140"/>
       <c r="E216" s="140"/>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:5" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A217" s="140"/>
       <c r="B217" s="140"/>
       <c r="C217" s="140"/>
       <c r="D217" s="140"/>
       <c r="E217" s="140"/>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:5" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A218" s="140"/>
       <c r="B218" s="140"/>
       <c r="C218" s="140"/>
       <c r="D218" s="140"/>
       <c r="E218" s="140"/>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:5" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A219" s="140"/>
       <c r="B219" s="140"/>
       <c r="C219" s="140"/>
       <c r="D219" s="140"/>
       <c r="E219" s="140"/>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:5" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A220" s="140"/>
       <c r="B220" s="140"/>
       <c r="C220" s="140"/>
       <c r="D220" s="140"/>
       <c r="E220" s="140"/>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:5" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A221" s="140"/>
       <c r="B221" s="140"/>
       <c r="C221" s="140"/>
       <c r="D221" s="140"/>
       <c r="E221" s="140"/>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:5" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A222" s="140"/>
       <c r="B222" s="140"/>
       <c r="C222" s="140"/>
       <c r="D222" s="140"/>
       <c r="E222" s="140"/>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:5" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A223" s="140"/>
       <c r="B223" s="140"/>
       <c r="C223" s="140"/>
       <c r="D223" s="140"/>
       <c r="E223" s="140"/>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:5" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A224" s="140"/>
       <c r="B224" s="140"/>
       <c r="C224" s="140"/>
       <c r="D224" s="140"/>
       <c r="E224" s="140"/>
     </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:5" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A225" s="140"/>
       <c r="B225" s="140"/>
       <c r="C225" s="140"/>
       <c r="D225" s="140"/>
       <c r="E225" s="140"/>
     </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:5" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A226" s="140"/>
       <c r="B226" s="140"/>
       <c r="C226" s="140"/>
       <c r="D226" s="140"/>
       <c r="E226" s="140"/>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:5" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A227" s="140"/>
       <c r="B227" s="140"/>
       <c r="C227" s="140"/>
       <c r="D227" s="140"/>
       <c r="E227" s="140"/>
     </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:5" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A228" s="140"/>
       <c r="B228" s="140"/>
       <c r="C228" s="140"/>
       <c r="D228" s="140"/>
       <c r="E228" s="140"/>
     </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:5" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A229" s="140"/>
       <c r="B229" s="140"/>
       <c r="C229" s="140"/>
       <c r="D229" s="140"/>
       <c r="E229" s="140"/>
     </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:5" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A230" s="140"/>
       <c r="B230" s="140"/>
       <c r="C230" s="140"/>
       <c r="D230" s="140"/>
       <c r="E230" s="140"/>
     </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:5" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A231" s="140"/>
       <c r="B231" s="140"/>
       <c r="C231" s="140"/>
       <c r="D231" s="140"/>
       <c r="E231" s="140"/>
     </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:5" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A232" s="140"/>
       <c r="B232" s="140"/>
       <c r="C232" s="140"/>
       <c r="D232" s="140"/>
       <c r="E232" s="140"/>
     </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:5" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A233" s="140"/>
       <c r="B233" s="140"/>
       <c r="C233" s="140"/>
       <c r="D233" s="140"/>
       <c r="E233" s="140"/>
     </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:5" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A234" s="140"/>
       <c r="B234" s="140"/>
       <c r="C234" s="140"/>
       <c r="D234" s="140"/>
       <c r="E234" s="140"/>
     </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:5" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A235" s="140"/>
       <c r="B235" s="140"/>
       <c r="C235" s="140"/>
       <c r="D235" s="140"/>
       <c r="E235" s="140"/>
     </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:5" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A236" s="140"/>
       <c r="B236" s="140"/>
       <c r="C236" s="140"/>
       <c r="D236" s="140"/>
       <c r="E236" s="140"/>
     </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:5" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A237" s="140"/>
       <c r="B237" s="140"/>
       <c r="C237" s="140"/>
       <c r="D237" s="140"/>
       <c r="E237" s="140"/>
     </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:5" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A238" s="140"/>
       <c r="B238" s="140"/>
       <c r="C238" s="140"/>
       <c r="D238" s="140"/>
       <c r="E238" s="140"/>
     </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:5" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A239" s="140"/>
       <c r="B239" s="140"/>
       <c r="C239" s="140"/>
       <c r="D239" s="140"/>
       <c r="E239" s="140"/>
     </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:5" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A240" s="140"/>
       <c r="B240" s="140"/>
       <c r="C240" s="140"/>
       <c r="D240" s="140"/>
       <c r="E240" s="140"/>
     </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:5" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A241" s="140"/>
       <c r="B241" s="140"/>
       <c r="C241" s="140"/>
       <c r="D241" s="140"/>
       <c r="E241" s="140"/>
     </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:5" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A242" s="140"/>
       <c r="B242" s="140"/>
       <c r="C242" s="140"/>
       <c r="D242" s="140"/>
       <c r="E242" s="140"/>
     </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:5" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A243" s="140"/>
       <c r="B243" s="140"/>
       <c r="C243" s="140"/>
       <c r="D243" s="140"/>
       <c r="E243" s="140"/>
     </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:5" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A244" s="140"/>
       <c r="B244" s="140"/>
       <c r="C244" s="140"/>
       <c r="D244" s="140"/>
       <c r="E244" s="140"/>
     </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:5" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A245" s="140"/>
       <c r="B245" s="140"/>
       <c r="C245" s="140"/>
       <c r="D245" s="140"/>
       <c r="E245" s="140"/>
     </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:5" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A246" s="140"/>
       <c r="B246" s="140"/>
       <c r="C246" s="140"/>
       <c r="D246" s="140"/>
       <c r="E246" s="140"/>
     </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:5" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A247" s="140"/>
       <c r="B247" s="140"/>
       <c r="C247" s="140"/>
       <c r="D247" s="140"/>
       <c r="E247" s="140"/>
     </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:5" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A248" s="140"/>
       <c r="B248" s="140"/>
       <c r="C248" s="140"/>
       <c r="D248" s="140"/>
       <c r="E248" s="140"/>
     </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:5" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A249" s="140"/>
       <c r="B249" s="140"/>
       <c r="C249" s="140"/>
       <c r="D249" s="140"/>
       <c r="E249" s="140"/>
     </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:5" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A250" s="140"/>
       <c r="B250" s="140"/>
       <c r="C250" s="140"/>
       <c r="D250" s="140"/>
       <c r="E250" s="140"/>
     </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:5" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A251" s="140"/>
       <c r="B251" s="140"/>
       <c r="C251" s="140"/>
       <c r="D251" s="140"/>
       <c r="E251" s="140"/>
     </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:5" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A252" s="140"/>
       <c r="B252" s="140"/>
       <c r="C252" s="140"/>
       <c r="D252" s="140"/>
       <c r="E252" s="140"/>
     </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:5" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A253" s="140"/>
       <c r="B253" s="140"/>
       <c r="C253" s="140"/>
       <c r="D253" s="140"/>
       <c r="E253" s="140"/>
     </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:5" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A254" s="140"/>
       <c r="B254" s="140"/>
       <c r="C254" s="140"/>
       <c r="D254" s="140"/>
       <c r="E254" s="140"/>
     </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:5" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A255" s="140"/>
       <c r="B255" s="140"/>
       <c r="C255" s="140"/>
       <c r="D255" s="140"/>
       <c r="E255" s="140"/>
     </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:5" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A256" s="140"/>
       <c r="B256" s="140"/>
       <c r="C256" s="140"/>
       <c r="D256" s="140"/>
       <c r="E256" s="140"/>
     </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:5" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A257" s="140"/>
       <c r="B257" s="140"/>
       <c r="C257" s="140"/>
       <c r="D257" s="140"/>
       <c r="E257" s="140"/>
     </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:5" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A258" s="140"/>
       <c r="B258" s="140"/>
       <c r="C258" s="140"/>
       <c r="D258" s="140"/>
       <c r="E258" s="140"/>
     </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:5" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A259" s="140"/>
       <c r="B259" s="140"/>
       <c r="C259" s="140"/>
       <c r="D259" s="140"/>
       <c r="E259" s="140"/>
     </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:5" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A260" s="140"/>
       <c r="B260" s="140"/>
       <c r="C260" s="140"/>
       <c r="D260" s="140"/>
       <c r="E260" s="140"/>
     </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:5" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A261" s="140"/>
       <c r="B261" s="140"/>
       <c r="C261" s="140"/>
       <c r="D261" s="140"/>
       <c r="E261" s="140"/>
     </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:5" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A262" s="140"/>
       <c r="B262" s="140"/>
       <c r="C262" s="140"/>
       <c r="D262" s="140"/>
       <c r="E262" s="140"/>
     </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:5" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A263" s="140"/>
       <c r="B263" s="140"/>
       <c r="C263" s="140"/>
       <c r="D263" s="140"/>
       <c r="E263" s="140"/>
     </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:5" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A264" s="140"/>
       <c r="B264" s="140"/>
       <c r="C264" s="140"/>
       <c r="D264" s="140"/>
       <c r="E264" s="140"/>
     </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:5" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A265" s="140"/>
       <c r="B265" s="140"/>
       <c r="C265" s="140"/>
       <c r="D265" s="140"/>
       <c r="E265" s="140"/>
     </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:5" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A266" s="140"/>
       <c r="B266" s="140"/>
       <c r="C266" s="140"/>
       <c r="D266" s="140"/>
       <c r="E266" s="140"/>
     </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:5" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A267" s="140"/>
       <c r="B267" s="140"/>
       <c r="C267" s="140"/>
       <c r="D267" s="140"/>
       <c r="E267" s="140"/>
     </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:5" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A268" s="140"/>
       <c r="B268" s="140"/>
       <c r="C268" s="140"/>
       <c r="D268" s="140"/>
       <c r="E268" s="140"/>
     </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:5" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A269" s="140"/>
       <c r="B269" s="140"/>
       <c r="C269" s="140"/>
       <c r="D269" s="140"/>
       <c r="E269" s="140"/>
     </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:5" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A270" s="140"/>
       <c r="B270" s="140"/>
       <c r="C270" s="140"/>
       <c r="D270" s="140"/>
       <c r="E270" s="140"/>
     </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:5" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A271" s="140"/>
       <c r="B271" s="140"/>
       <c r="C271" s="140"/>
       <c r="D271" s="140"/>
       <c r="E271" s="140"/>
     </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:5" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A272" s="140"/>
       <c r="B272" s="140"/>
       <c r="C272" s="140"/>
       <c r="D272" s="140"/>
       <c r="E272" s="140"/>
     </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:5" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A273" s="140"/>
       <c r="B273" s="140"/>
       <c r="C273" s="140"/>
       <c r="D273" s="140"/>
       <c r="E273" s="140"/>
     </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:5" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A274" s="140"/>
       <c r="B274" s="140"/>
       <c r="C274" s="140"/>
       <c r="D274" s="140"/>
       <c r="E274" s="140"/>
     </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:5" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A275" s="140"/>
       <c r="B275" s="140"/>
       <c r="C275" s="140"/>
       <c r="D275" s="140"/>
       <c r="E275" s="140"/>
     </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:5" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A276" s="140"/>
       <c r="B276" s="140"/>
       <c r="C276" s="140"/>
       <c r="D276" s="140"/>
       <c r="E276" s="140"/>
     </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:5" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A277" s="140"/>
       <c r="B277" s="140"/>
       <c r="C277" s="140"/>
       <c r="D277" s="140"/>
       <c r="E277" s="140"/>
     </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:5" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A278" s="140"/>
       <c r="B278" s="140"/>
       <c r="C278" s="140"/>
       <c r="D278" s="140"/>
       <c r="E278" s="140"/>
     </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:5" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A279" s="140"/>
       <c r="B279" s="140"/>
       <c r="C279" s="140"/>
       <c r="D279" s="140"/>
       <c r="E279" s="140"/>
     </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:5" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A280" s="140"/>
       <c r="B280" s="140"/>
       <c r="C280" s="140"/>
       <c r="D280" s="140"/>
       <c r="E280" s="140"/>
     </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:5" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A281" s="140"/>
       <c r="B281" s="140"/>
       <c r="C281" s="140"/>
       <c r="D281" s="140"/>
       <c r="E281" s="140"/>
     </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:5" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A282" s="140"/>
       <c r="B282" s="140"/>
       <c r="C282" s="140"/>
       <c r="D282" s="140"/>
       <c r="E282" s="140"/>
     </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:5" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A283" s="140"/>
       <c r="B283" s="140"/>
       <c r="C283" s="140"/>
       <c r="D283" s="140"/>
       <c r="E283" s="140"/>
     </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:5" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A284" s="140"/>
       <c r="B284" s="140"/>
       <c r="C284" s="140"/>
       <c r="D284" s="140"/>
       <c r="E284" s="140"/>
     </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:5" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A285" s="140"/>
       <c r="B285" s="140"/>
       <c r="C285" s="140"/>
       <c r="D285" s="140"/>
       <c r="E285" s="140"/>
     </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:5" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A286" s="140"/>
       <c r="B286" s="140"/>
       <c r="C286" s="140"/>
       <c r="D286" s="140"/>
       <c r="E286" s="140"/>
     </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:5" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A287" s="140"/>
       <c r="B287" s="140"/>
       <c r="C287" s="140"/>
       <c r="D287" s="140"/>
       <c r="E287" s="140"/>
     </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:5" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A288" s="140"/>
       <c r="B288" s="140"/>
       <c r="C288" s="140"/>
       <c r="D288" s="140"/>
       <c r="E288" s="140"/>
     </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:5" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A289" s="140"/>
       <c r="B289" s="140"/>
       <c r="C289" s="140"/>
       <c r="D289" s="140"/>
       <c r="E289" s="140"/>
     </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:5" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A290" s="140"/>
       <c r="B290" s="140"/>
       <c r="C290" s="140"/>
       <c r="D290" s="140"/>
       <c r="E290" s="140"/>
     </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:5" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A291" s="140"/>
       <c r="B291" s="140"/>
       <c r="C291" s="140"/>
       <c r="D291" s="140"/>
       <c r="E291" s="140"/>
     </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:5" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A292" s="140"/>
       <c r="B292" s="140"/>
       <c r="C292" s="140"/>
       <c r="D292" s="140"/>
       <c r="E292" s="140"/>
     </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:5" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A293" s="140"/>
       <c r="B293" s="140"/>
       <c r="C293" s="140"/>
       <c r="D293" s="140"/>
       <c r="E293" s="140"/>
     </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:5" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A294" s="140"/>
       <c r="B294" s="140"/>
       <c r="C294" s="140"/>
       <c r="D294" s="140"/>
       <c r="E294" s="140"/>
     </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:5" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A295" s="140"/>
       <c r="B295" s="140"/>
       <c r="C295" s="140"/>
       <c r="D295" s="140"/>
       <c r="E295" s="140"/>
     </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:5" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A296" s="140"/>
       <c r="B296" s="140"/>
       <c r="C296" s="140"/>
       <c r="D296" s="140"/>
       <c r="E296" s="140"/>
     </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:5" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A297" s="140"/>
       <c r="B297" s="140"/>
       <c r="C297" s="140"/>
       <c r="D297" s="140"/>
       <c r="E297" s="140"/>
     </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:5" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A298" s="140"/>
       <c r="B298" s="140"/>
       <c r="C298" s="140"/>
       <c r="D298" s="140"/>
       <c r="E298" s="140"/>
     </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:5" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A299" s="140"/>
       <c r="B299" s="140"/>
       <c r="C299" s="140"/>
       <c r="D299" s="140"/>
       <c r="E299" s="140"/>
     </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:5" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A300" s="140"/>
       <c r="B300" s="140"/>
       <c r="C300" s="140"/>
       <c r="D300" s="140"/>
       <c r="E300" s="140"/>
     </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:5" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A301" s="140"/>
       <c r="B301" s="140"/>
       <c r="C301" s="140"/>
       <c r="D301" s="140"/>
       <c r="E301" s="140"/>
     </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:5" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A302" s="140"/>
       <c r="B302" s="140"/>
       <c r="C302" s="140"/>
       <c r="D302" s="140"/>
       <c r="E302" s="140"/>
     </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:5" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A303" s="140"/>
       <c r="B303" s="140"/>
       <c r="C303" s="140"/>
       <c r="D303" s="140"/>
       <c r="E303" s="140"/>
     </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:5" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A304" s="140"/>
       <c r="B304" s="140"/>
       <c r="C304" s="140"/>
       <c r="D304" s="140"/>
       <c r="E304" s="140"/>
     </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:5" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A305" s="140"/>
       <c r="B305" s="140"/>
       <c r="C305" s="140"/>
       <c r="D305" s="140"/>
       <c r="E305" s="140"/>
     </row>
-    <row r="306" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:5" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A306" s="140"/>
       <c r="B306" s="140"/>
       <c r="C306" s="140"/>
       <c r="D306" s="140"/>
       <c r="E306" s="140"/>
     </row>
-    <row r="307" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:5" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A307" s="140"/>
       <c r="B307" s="140"/>
       <c r="C307" s="140"/>
       <c r="D307" s="140"/>
       <c r="E307" s="140"/>
     </row>
-    <row r="308" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:5" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A308" s="140"/>
       <c r="B308" s="140"/>
       <c r="C308" s="140"/>
       <c r="D308" s="140"/>
       <c r="E308" s="140"/>
     </row>
-    <row r="309" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:5" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A309" s="140"/>
       <c r="B309" s="140"/>
       <c r="C309" s="140"/>
       <c r="D309" s="140"/>
       <c r="E309" s="140"/>
     </row>
-    <row r="310" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:5" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A310" s="140"/>
       <c r="B310" s="140"/>
       <c r="C310" s="140"/>
       <c r="D310" s="140"/>
       <c r="E310" s="140"/>
     </row>
-    <row r="311" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:5" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A311" s="140"/>
       <c r="B311" s="140"/>
       <c r="C311" s="140"/>
       <c r="D311" s="140"/>
       <c r="E311" s="140"/>
     </row>
-    <row r="312" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:5" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A312" s="140"/>
       <c r="B312" s="140"/>
       <c r="C312" s="140"/>
       <c r="D312" s="140"/>
       <c r="E312" s="140"/>
     </row>
-    <row r="313" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:5" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A313" s="140"/>
       <c r="B313" s="140"/>
       <c r="C313" s="140"/>
       <c r="D313" s="140"/>
       <c r="E313" s="140"/>
     </row>
-    <row r="314" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:5" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A314" s="140"/>
       <c r="B314" s="140"/>
       <c r="C314" s="140"/>
       <c r="D314" s="140"/>
       <c r="E314" s="140"/>
     </row>
-    <row r="315" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:5" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A315" s="140"/>
       <c r="B315" s="140"/>
       <c r="C315" s="140"/>
       <c r="D315" s="140"/>
       <c r="E315" s="140"/>
     </row>
-    <row r="316" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:5" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A316" s="140"/>
       <c r="B316" s="140"/>
       <c r="C316" s="140"/>
       <c r="D316" s="140"/>
       <c r="E316" s="140"/>
     </row>
-    <row r="317" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:5" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A317" s="140"/>
       <c r="B317" s="140"/>
       <c r="C317" s="140"/>
       <c r="D317" s="140"/>
       <c r="E317" s="140"/>
     </row>
-    <row r="318" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:5" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A318" s="140"/>
       <c r="B318" s="140"/>
       <c r="C318" s="140"/>
       <c r="D318" s="140"/>
       <c r="E318" s="140"/>
     </row>
-    <row r="319" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:5" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A319" s="140"/>
       <c r="B319" s="140"/>
       <c r="C319" s="140"/>
       <c r="D319" s="140"/>
       <c r="E319" s="140"/>
     </row>
-    <row r="320" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:5" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A320" s="140"/>
       <c r="B320" s="140"/>
       <c r="C320" s="140"/>
@@ -7052,14 +7052,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="J4:J5"/>
     <mergeCell ref="A1:R1"/>
     <mergeCell ref="A2:R2"/>
     <mergeCell ref="A4:A5"/>
@@ -7072,6 +7064,14 @@
     <mergeCell ref="Q4:Q5"/>
     <mergeCell ref="A3:R3"/>
     <mergeCell ref="K4:K5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="J4:J5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -7167,7 +7167,7 @@
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="44" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B4" s="45">
         <v>103750</v>
@@ -7217,7 +7217,7 @@
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="49" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B6" s="50">
         <v>364000</v>
@@ -7247,7 +7247,7 @@
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="56" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B7" s="50">
         <v>324000</v>
@@ -7277,7 +7277,7 @@
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="56" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B8" s="58">
         <v>174000</v>
@@ -7307,7 +7307,7 @@
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="58" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B9" s="58">
         <v>193000</v>
@@ -7337,7 +7337,7 @@
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="58" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B10" s="58">
         <v>0</v>
@@ -7365,7 +7365,7 @@
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="44" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B11" s="62">
         <v>488000</v>
@@ -7395,7 +7395,7 @@
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="49" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B12" s="62">
         <v>276000</v>
@@ -7425,7 +7425,7 @@
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="49" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B13" s="64">
         <v>131000</v>
@@ -7455,7 +7455,7 @@
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="49" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B14" s="65">
         <v>196000</v>
@@ -7485,7 +7485,7 @@
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="49" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B15" s="46">
         <v>244000</v>
@@ -7515,7 +7515,7 @@
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="49" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B16" s="50">
         <v>0</v>
@@ -7545,7 +7545,7 @@
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="56" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B17" s="50">
         <v>471000</v>
@@ -7575,7 +7575,7 @@
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="56" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B18" s="58">
         <v>0</v>
@@ -7605,7 +7605,7 @@
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="58" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B19" s="58">
         <v>257000</v>
@@ -7635,7 +7635,7 @@
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="58" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B20" s="58">
         <v>338000</v>
@@ -7665,7 +7665,7 @@
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="49" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B21" s="50">
         <v>304000</v>
@@ -7695,7 +7695,7 @@
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="49" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B22" s="50">
         <v>0</v>
@@ -7725,7 +7725,7 @@
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="49" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B23" s="50">
         <v>700000</v>
@@ -7755,7 +7755,7 @@
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="49" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B24" s="50">
         <v>0</v>
@@ -7785,7 +7785,7 @@
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" s="49" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B25" s="50">
         <v>165000</v>
@@ -7815,7 +7815,7 @@
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" s="49" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B26" s="50">
         <v>238000</v>
@@ -7843,7 +7843,7 @@
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" s="49" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B27" s="50">
         <v>194000</v>
@@ -7871,7 +7871,7 @@
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" s="49" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B28" s="50">
         <v>202000</v>
@@ -7899,7 +7899,7 @@
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" s="49" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B29" s="50">
         <v>0</v>
@@ -7927,7 +7927,7 @@
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" s="49" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B30" s="50">
         <v>488000</v>
@@ -7955,7 +7955,7 @@
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31" s="49" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B31" s="72">
         <v>0</v>
@@ -7983,7 +7983,7 @@
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" s="49" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B32" s="72">
         <v>242000</v>
@@ -8011,7 +8011,7 @@
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33" s="49" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B33" s="72">
         <v>0</v>
@@ -8039,7 +8039,7 @@
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A34" s="49" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B34" s="72">
         <v>745000</v>
@@ -8067,7 +8067,7 @@
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A35" s="49" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B35" s="74">
         <v>0</v>
@@ -9222,7 +9222,7 @@
     </row>
     <row r="2" spans="1:12" ht="21.75" x14ac:dyDescent="0.25">
       <c r="A2" s="353" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B2" s="354"/>
       <c r="C2" s="354"/>
@@ -9253,7 +9253,7 @@
       <c r="E4" s="85"/>
       <c r="F4" s="28"/>
       <c r="J4" s="356" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K4" s="357"/>
       <c r="L4" s="358"/>
@@ -9277,15 +9277,15 @@
         <v>12</v>
       </c>
       <c r="K5" s="185" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L5" s="185" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="21.75" x14ac:dyDescent="0.25">
       <c r="A6" s="86" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B6" s="30">
         <v>64277.723500000007</v>
@@ -9299,10 +9299,10 @@
       </c>
       <c r="F6" s="3"/>
       <c r="J6" s="146" t="s">
+        <v>90</v>
+      </c>
+      <c r="K6" s="185" t="s">
         <v>91</v>
-      </c>
-      <c r="K6" s="185" t="s">
-        <v>92</v>
       </c>
       <c r="L6" s="185">
         <v>2050</v>
@@ -9320,10 +9320,10 @@
       </c>
       <c r="F7" s="3"/>
       <c r="J7" s="146" t="s">
+        <v>92</v>
+      </c>
+      <c r="K7" s="185" t="s">
         <v>93</v>
-      </c>
-      <c r="K7" s="185" t="s">
-        <v>94</v>
       </c>
       <c r="L7" s="185">
         <v>7300</v>
@@ -9331,7 +9331,7 @@
     </row>
     <row r="8" spans="1:12" ht="21.75" x14ac:dyDescent="0.25">
       <c r="A8" s="86" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B8" s="30">
         <v>62147</v>
@@ -9345,10 +9345,10 @@
       </c>
       <c r="F8" s="3"/>
       <c r="J8" s="146" t="s">
+        <v>94</v>
+      </c>
+      <c r="K8" s="185" t="s">
         <v>95</v>
-      </c>
-      <c r="K8" s="185" t="s">
-        <v>96</v>
       </c>
       <c r="L8" s="185">
         <v>1150</v>
@@ -9363,17 +9363,17 @@
       </c>
       <c r="C9" s="37"/>
       <c r="D9" s="29" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E9" s="186">
         <v>60494</v>
       </c>
       <c r="F9" s="22"/>
       <c r="J9" s="146" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K9" s="185" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L9" s="185">
         <v>300</v>
@@ -9387,10 +9387,10 @@
       <c r="E10" s="88"/>
       <c r="F10" s="22"/>
       <c r="J10" s="146" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K10" s="185" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L10" s="185">
         <v>450</v>
@@ -9412,10 +9412,10 @@
       </c>
       <c r="I11" s="144"/>
       <c r="J11" s="146" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K11" s="185" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L11" s="185">
         <v>410</v>
@@ -9423,7 +9423,7 @@
     </row>
     <row r="12" spans="1:12" ht="21.75" x14ac:dyDescent="0.25">
       <c r="A12" s="90" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B12" s="38">
         <f>B6-B8-B9</f>
@@ -9438,10 +9438,10 @@
       </c>
       <c r="F12" s="22"/>
       <c r="J12" s="146" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K12" s="185" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="L12" s="185">
         <v>25915</v>
@@ -9455,10 +9455,10 @@
       <c r="E13" s="255"/>
       <c r="F13" s="22"/>
       <c r="J13" s="146" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K13" s="185" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L13" s="185">
         <v>440</v>
@@ -9472,10 +9472,10 @@
       <c r="E14" s="91"/>
       <c r="F14" s="24"/>
       <c r="J14" s="152" t="s">
+        <v>99</v>
+      </c>
+      <c r="K14" s="187" t="s">
         <v>100</v>
-      </c>
-      <c r="K14" s="187" t="s">
-        <v>101</v>
       </c>
       <c r="L14" s="187">
         <v>5547</v>
@@ -9483,7 +9483,7 @@
     </row>
     <row r="15" spans="1:12" ht="21.75" x14ac:dyDescent="0.25">
       <c r="A15" s="86" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B15" s="30">
         <f>B5+B12-B13-B11</f>
@@ -9499,10 +9499,10 @@
       </c>
       <c r="F15" s="22"/>
       <c r="J15" s="146" t="s">
+        <v>101</v>
+      </c>
+      <c r="K15" s="185" t="s">
         <v>102</v>
-      </c>
-      <c r="K15" s="185" t="s">
-        <v>103</v>
       </c>
       <c r="L15" s="185">
         <v>945</v>
@@ -9516,10 +9516,10 @@
       <c r="E16" s="96"/>
       <c r="F16" s="22"/>
       <c r="J16" s="152" t="s">
+        <v>103</v>
+      </c>
+      <c r="K16" s="152" t="s">
         <v>104</v>
-      </c>
-      <c r="K16" s="152" t="s">
-        <v>105</v>
       </c>
       <c r="L16" s="188">
         <v>7989</v>
@@ -9542,10 +9542,10 @@
       <c r="D18" s="13"/>
       <c r="F18" s="26"/>
       <c r="J18" s="83" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K18" s="83" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L18" s="83">
         <v>576</v>
@@ -9557,10 +9557,10 @@
       <c r="D19" s="13"/>
       <c r="F19" s="26"/>
       <c r="J19" s="83" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K19" s="83" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L19" s="83">
         <v>72</v>
@@ -9572,10 +9572,10 @@
       <c r="D20" s="13"/>
       <c r="F20" s="26"/>
       <c r="J20" s="83" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="K20" s="83" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="L20" s="83">
         <v>2386</v>
@@ -9587,10 +9587,10 @@
       <c r="D21" s="13"/>
       <c r="F21" s="26"/>
       <c r="J21" s="83" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="K21" s="83" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="L21" s="83">
         <v>4082</v>
@@ -9601,10 +9601,10 @@
       <c r="C22" s="27"/>
       <c r="F22" s="26"/>
       <c r="J22" s="83" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="K22" s="83" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L22" s="83">
         <v>882</v>
@@ -9617,7 +9617,7 @@
       <c r="E23" s="6"/>
       <c r="F23" s="26"/>
       <c r="J23" s="362" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K23" s="362"/>
       <c r="L23" s="190">
@@ -9709,7 +9709,7 @@
   </sheetPr>
   <dimension ref="A1:V168"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="T27" sqref="T27"/>
     </sheetView>
@@ -9780,7 +9780,7 @@
     </row>
     <row r="3" spans="1:22" s="148" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="370" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B3" s="370"/>
       <c r="C3" s="370"/>
@@ -9822,16 +9822,16 @@
     </row>
     <row r="5" spans="1:22" s="148" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="372" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B5" s="373"/>
       <c r="C5" s="192"/>
       <c r="D5" s="193" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E5" s="193"/>
       <c r="F5" s="367" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G5" s="367"/>
       <c r="H5" s="367"/>
@@ -9845,71 +9845,71 @@
       <c r="P5" s="367"/>
       <c r="Q5" s="368"/>
       <c r="T5" s="366" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="U5" s="367"/>
       <c r="V5" s="368"/>
     </row>
     <row r="6" spans="1:22" s="149" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="315" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" s="194" t="s">
+        <v>69</v>
+      </c>
+      <c r="C6" s="195" t="s">
+        <v>70</v>
+      </c>
+      <c r="D6" s="194" t="s">
         <v>46</v>
       </c>
-      <c r="B6" s="194" t="s">
-        <v>70</v>
-      </c>
-      <c r="C6" s="195" t="s">
+      <c r="E6" s="194" t="s">
+        <v>47</v>
+      </c>
+      <c r="F6" s="196" t="s">
+        <v>48</v>
+      </c>
+      <c r="G6" s="196" t="s">
+        <v>49</v>
+      </c>
+      <c r="H6" s="196" t="s">
+        <v>50</v>
+      </c>
+      <c r="I6" s="196" t="s">
+        <v>51</v>
+      </c>
+      <c r="J6" s="194" t="s">
+        <v>52</v>
+      </c>
+      <c r="K6" s="194" t="s">
+        <v>53</v>
+      </c>
+      <c r="L6" s="194" t="s">
+        <v>54</v>
+      </c>
+      <c r="M6" s="197" t="s">
+        <v>55</v>
+      </c>
+      <c r="N6" s="198" t="s">
+        <v>56</v>
+      </c>
+      <c r="O6" s="198" t="s">
+        <v>57</v>
+      </c>
+      <c r="P6" s="198" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q6" s="199" t="s">
         <v>71</v>
-      </c>
-      <c r="D6" s="194" t="s">
-        <v>47</v>
-      </c>
-      <c r="E6" s="194" t="s">
-        <v>48</v>
-      </c>
-      <c r="F6" s="196" t="s">
-        <v>49</v>
-      </c>
-      <c r="G6" s="196" t="s">
-        <v>50</v>
-      </c>
-      <c r="H6" s="196" t="s">
-        <v>51</v>
-      </c>
-      <c r="I6" s="196" t="s">
-        <v>52</v>
-      </c>
-      <c r="J6" s="194" t="s">
-        <v>53</v>
-      </c>
-      <c r="K6" s="194" t="s">
-        <v>54</v>
-      </c>
-      <c r="L6" s="194" t="s">
-        <v>55</v>
-      </c>
-      <c r="M6" s="197" t="s">
-        <v>56</v>
-      </c>
-      <c r="N6" s="198" t="s">
-        <v>57</v>
-      </c>
-      <c r="O6" s="198" t="s">
-        <v>58</v>
-      </c>
-      <c r="P6" s="198" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q6" s="199" t="s">
-        <v>72</v>
       </c>
       <c r="T6" s="164" t="s">
         <v>12</v>
       </c>
       <c r="U6" s="164" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="V6" s="164" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -9917,10 +9917,10 @@
         <v>1</v>
       </c>
       <c r="B7" s="166" t="s">
+        <v>72</v>
+      </c>
+      <c r="C7" s="150" t="s">
         <v>73</v>
-      </c>
-      <c r="C7" s="150" t="s">
-        <v>74</v>
       </c>
       <c r="D7" s="151"/>
       <c r="E7" s="150"/>
@@ -9937,7 +9937,7 @@
       <c r="P7" s="169"/>
       <c r="Q7" s="167"/>
       <c r="T7" s="187" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="U7" s="187">
         <v>129</v>
@@ -9951,10 +9951,10 @@
         <v>2</v>
       </c>
       <c r="B8" s="166" t="s">
+        <v>74</v>
+      </c>
+      <c r="C8" s="150" t="s">
         <v>75</v>
-      </c>
-      <c r="C8" s="150" t="s">
-        <v>76</v>
       </c>
       <c r="D8" s="151"/>
       <c r="E8" s="150"/>
@@ -9973,7 +9973,7 @@
       </c>
       <c r="Q8" s="167"/>
       <c r="T8" s="187" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="U8" s="187">
         <v>196</v>
@@ -9987,10 +9987,10 @@
         <v>3</v>
       </c>
       <c r="B9" s="166" t="s">
+        <v>76</v>
+      </c>
+      <c r="C9" s="150" t="s">
         <v>77</v>
-      </c>
-      <c r="C9" s="150" t="s">
-        <v>78</v>
       </c>
       <c r="D9" s="154"/>
       <c r="E9" s="150"/>
@@ -10012,7 +10012,7 @@
       <c r="Q9" s="167"/>
       <c r="R9" s="148"/>
       <c r="T9" s="187" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="U9" s="187">
         <v>248</v>
@@ -10026,10 +10026,10 @@
         <v>4</v>
       </c>
       <c r="B10" s="166" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C10" s="150" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D10" s="154"/>
       <c r="E10" s="150"/>
@@ -10050,7 +10050,7 @@
       </c>
       <c r="Q10" s="174"/>
       <c r="T10" s="187" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="U10" s="187">
         <v>237</v>
@@ -10064,10 +10064,10 @@
         <v>5</v>
       </c>
       <c r="B11" s="166" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C11" s="150" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D11" s="154"/>
       <c r="E11" s="150"/>
@@ -10084,7 +10084,7 @@
       <c r="P11" s="169"/>
       <c r="Q11" s="174"/>
       <c r="T11" s="187" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="U11" s="187">
         <v>262</v>
@@ -10098,10 +10098,10 @@
         <v>6</v>
       </c>
       <c r="B12" s="166" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C12" s="150" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D12" s="154"/>
       <c r="E12" s="150"/>
@@ -10128,10 +10128,10 @@
         <v>7</v>
       </c>
       <c r="B13" s="166" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C13" s="150" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D13" s="154"/>
       <c r="E13" s="150"/>
@@ -10158,10 +10158,10 @@
         <v>8</v>
       </c>
       <c r="B14" s="166" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C14" s="150" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D14" s="154"/>
       <c r="E14" s="150"/>
@@ -10198,10 +10198,10 @@
         <v>9</v>
       </c>
       <c r="B15" s="166" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C15" s="151" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D15" s="154"/>
       <c r="E15" s="150"/>
@@ -10226,10 +10226,10 @@
         <v>10</v>
       </c>
       <c r="B16" s="166" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C16" s="150" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D16" s="154"/>
       <c r="E16" s="150"/>
@@ -10254,10 +10254,10 @@
         <v>11</v>
       </c>
       <c r="B17" s="166" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C17" s="151" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D17" s="154"/>
       <c r="E17" s="150"/>
@@ -10286,7 +10286,7 @@
       </c>
       <c r="Q17" s="174"/>
       <c r="T17" s="253" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="U17" s="253">
         <f>SUM(U7:U16)</f>
@@ -10342,7 +10342,7 @@
       <c r="P19" s="169"/>
       <c r="Q19" s="174"/>
       <c r="T19" s="374" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="U19" s="374"/>
       <c r="V19" s="374"/>
@@ -10368,10 +10368,10 @@
       <c r="P20" s="169"/>
       <c r="Q20" s="174"/>
       <c r="S20" s="147" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="T20" s="252" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="U20" s="252">
         <v>3</v>
@@ -10401,10 +10401,10 @@
       <c r="P21" s="169"/>
       <c r="Q21" s="174"/>
       <c r="S21" s="147" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="T21" s="252" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="U21" s="252">
         <v>6</v>
@@ -10434,7 +10434,7 @@
       <c r="P22" s="169"/>
       <c r="Q22" s="174"/>
       <c r="T22" s="253" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="U22" s="253">
         <f>U20+U21</f>
@@ -10573,7 +10573,7 @@
     </row>
     <row r="29" spans="1:22" s="158" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="363" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B29" s="364"/>
       <c r="C29" s="365"/>
@@ -11368,7 +11368,7 @@
     </row>
     <row r="3" spans="1:22" s="148" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="370" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B3" s="370"/>
       <c r="C3" s="370"/>
@@ -11410,16 +11410,16 @@
     </row>
     <row r="5" spans="1:22" s="148" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="372" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B5" s="373"/>
       <c r="C5" s="192"/>
       <c r="D5" s="193" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E5" s="193"/>
       <c r="F5" s="367" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G5" s="367"/>
       <c r="H5" s="367"/>
@@ -11433,71 +11433,71 @@
       <c r="P5" s="367"/>
       <c r="Q5" s="368"/>
       <c r="T5" s="366" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="U5" s="367"/>
       <c r="V5" s="368"/>
     </row>
     <row r="6" spans="1:22" s="149" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="194" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" s="194" t="s">
+        <v>69</v>
+      </c>
+      <c r="C6" s="195" t="s">
+        <v>70</v>
+      </c>
+      <c r="D6" s="194" t="s">
         <v>46</v>
       </c>
-      <c r="B6" s="194" t="s">
-        <v>70</v>
-      </c>
-      <c r="C6" s="195" t="s">
+      <c r="E6" s="194" t="s">
+        <v>47</v>
+      </c>
+      <c r="F6" s="196" t="s">
+        <v>48</v>
+      </c>
+      <c r="G6" s="196" t="s">
+        <v>49</v>
+      </c>
+      <c r="H6" s="196" t="s">
+        <v>50</v>
+      </c>
+      <c r="I6" s="196" t="s">
+        <v>51</v>
+      </c>
+      <c r="J6" s="194" t="s">
+        <v>52</v>
+      </c>
+      <c r="K6" s="194" t="s">
+        <v>53</v>
+      </c>
+      <c r="L6" s="194" t="s">
+        <v>54</v>
+      </c>
+      <c r="M6" s="197" t="s">
+        <v>55</v>
+      </c>
+      <c r="N6" s="198" t="s">
+        <v>56</v>
+      </c>
+      <c r="O6" s="198" t="s">
+        <v>57</v>
+      </c>
+      <c r="P6" s="198" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q6" s="199" t="s">
         <v>71</v>
-      </c>
-      <c r="D6" s="194" t="s">
-        <v>47</v>
-      </c>
-      <c r="E6" s="194" t="s">
-        <v>48</v>
-      </c>
-      <c r="F6" s="196" t="s">
-        <v>49</v>
-      </c>
-      <c r="G6" s="196" t="s">
-        <v>50</v>
-      </c>
-      <c r="H6" s="196" t="s">
-        <v>51</v>
-      </c>
-      <c r="I6" s="196" t="s">
-        <v>52</v>
-      </c>
-      <c r="J6" s="194" t="s">
-        <v>53</v>
-      </c>
-      <c r="K6" s="194" t="s">
-        <v>54</v>
-      </c>
-      <c r="L6" s="194" t="s">
-        <v>55</v>
-      </c>
-      <c r="M6" s="197" t="s">
-        <v>56</v>
-      </c>
-      <c r="N6" s="198" t="s">
-        <v>57</v>
-      </c>
-      <c r="O6" s="198" t="s">
-        <v>58</v>
-      </c>
-      <c r="P6" s="198" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q6" s="199" t="s">
-        <v>72</v>
       </c>
       <c r="T6" s="164" t="s">
         <v>12</v>
       </c>
       <c r="U6" s="164" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="V6" s="164" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -11505,10 +11505,10 @@
         <v>1</v>
       </c>
       <c r="B7" s="166" t="s">
+        <v>72</v>
+      </c>
+      <c r="C7" s="150" t="s">
         <v>73</v>
-      </c>
-      <c r="C7" s="150" t="s">
-        <v>74</v>
       </c>
       <c r="D7" s="151"/>
       <c r="E7" s="150"/>
@@ -11525,7 +11525,7 @@
       <c r="P7" s="169"/>
       <c r="Q7" s="167"/>
       <c r="T7" s="187" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="U7" s="187">
         <v>129</v>
@@ -11539,10 +11539,10 @@
         <v>2</v>
       </c>
       <c r="B8" s="166" t="s">
+        <v>74</v>
+      </c>
+      <c r="C8" s="150" t="s">
         <v>75</v>
-      </c>
-      <c r="C8" s="150" t="s">
-        <v>76</v>
       </c>
       <c r="D8" s="151"/>
       <c r="E8" s="150"/>
@@ -11567,7 +11567,7 @@
       </c>
       <c r="Q8" s="167"/>
       <c r="T8" s="187" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="U8" s="187">
         <v>196</v>
@@ -11581,10 +11581,10 @@
         <v>3</v>
       </c>
       <c r="B9" s="166" t="s">
+        <v>76</v>
+      </c>
+      <c r="C9" s="150" t="s">
         <v>77</v>
-      </c>
-      <c r="C9" s="150" t="s">
-        <v>78</v>
       </c>
       <c r="D9" s="154"/>
       <c r="E9" s="150"/>
@@ -11618,10 +11618,10 @@
         <v>4</v>
       </c>
       <c r="B10" s="166" t="s">
+        <v>78</v>
+      </c>
+      <c r="C10" s="150" t="s">
         <v>79</v>
-      </c>
-      <c r="C10" s="150" t="s">
-        <v>80</v>
       </c>
       <c r="D10" s="154"/>
       <c r="E10" s="150"/>
@@ -11638,7 +11638,7 @@
       <c r="P10" s="169"/>
       <c r="Q10" s="174"/>
       <c r="T10" s="375" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="U10" s="376"/>
       <c r="V10" s="377"/>
@@ -11648,10 +11648,10 @@
         <v>5</v>
       </c>
       <c r="B11" s="166" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C11" s="150" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D11" s="154"/>
       <c r="E11" s="150"/>
@@ -11668,7 +11668,7 @@
       <c r="P11" s="169"/>
       <c r="Q11" s="174"/>
       <c r="T11" s="187" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="U11" s="187">
         <v>3</v>
@@ -11683,10 +11683,10 @@
         <v>6</v>
       </c>
       <c r="B12" s="166" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C12" s="150" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D12" s="154"/>
       <c r="E12" s="150"/>
@@ -11711,10 +11711,10 @@
         <v>7</v>
       </c>
       <c r="B13" s="166" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C13" s="150" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D13" s="154"/>
       <c r="E13" s="150"/>
@@ -11731,7 +11731,7 @@
       <c r="P13" s="169"/>
       <c r="Q13" s="174"/>
       <c r="T13" s="375" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="U13" s="376"/>
       <c r="V13" s="377"/>
@@ -11741,10 +11741,10 @@
         <v>8</v>
       </c>
       <c r="B14" s="166" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C14" s="150" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D14" s="154"/>
       <c r="E14" s="150"/>
@@ -11761,7 +11761,7 @@
       <c r="P14" s="169"/>
       <c r="Q14" s="174"/>
       <c r="T14" s="187" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="U14" s="187">
         <v>6</v>
@@ -11776,10 +11776,10 @@
         <v>9</v>
       </c>
       <c r="B15" s="166" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C15" s="151" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D15" s="154"/>
       <c r="E15" s="150"/>
@@ -11796,7 +11796,7 @@
       <c r="P15" s="169"/>
       <c r="Q15" s="174"/>
       <c r="T15" s="191" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="U15" s="191">
         <f>SUM(U7:U14)</f>
@@ -11812,10 +11812,10 @@
         <v>10</v>
       </c>
       <c r="B16" s="166" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C16" s="150" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D16" s="154"/>
       <c r="E16" s="150"/>
@@ -11834,13 +11834,13 @@
     </row>
     <row r="17" spans="1:21" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A17" s="153" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B17" s="166" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C17" s="151" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D17" s="154"/>
       <c r="E17" s="150"/>
@@ -11861,7 +11861,7 @@
         <v>6552</v>
       </c>
       <c r="U17" s="147" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="18" spans="1:21" ht="18.75" x14ac:dyDescent="0.25">
@@ -11869,10 +11869,10 @@
         <v>12</v>
       </c>
       <c r="B18" s="166" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C18" s="150" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D18" s="154"/>
       <c r="E18" s="150"/>
@@ -11893,7 +11893,7 @@
         <v>113454</v>
       </c>
       <c r="U18" s="147" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="19" spans="1:21" ht="18.75" x14ac:dyDescent="0.25">
@@ -11901,7 +11901,7 @@
         <v>13</v>
       </c>
       <c r="B19" s="166" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C19" s="155"/>
       <c r="D19" s="177"/>
@@ -11924,7 +11924,7 @@
         <v>14</v>
       </c>
       <c r="B20" s="166" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C20" s="150"/>
       <c r="D20" s="177"/>
@@ -12091,7 +12091,7 @@
     </row>
     <row r="28" spans="1:21" s="158" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="363" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B28" s="364"/>
       <c r="C28" s="365"/>
@@ -12828,7 +12828,7 @@
   <sheetData>
     <row r="1" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="383" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B1" s="383"/>
       <c r="C1" s="383"/>
@@ -12856,7 +12856,7 @@
     </row>
     <row r="2" spans="1:30" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="386" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B2" s="386"/>
       <c r="C2" s="386"/>
@@ -12893,42 +12893,42 @@
     <row r="3" spans="1:30" s="148" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="257"/>
       <c r="B3" s="378" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C3" s="379"/>
       <c r="D3" s="380"/>
       <c r="E3" s="378" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F3" s="381"/>
       <c r="G3" s="382"/>
       <c r="H3" s="381" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I3" s="381"/>
       <c r="J3" s="381"/>
       <c r="K3" s="387" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L3" s="388"/>
       <c r="M3" s="389"/>
       <c r="N3" s="387" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="O3" s="388"/>
       <c r="P3" s="389"/>
       <c r="Q3" s="390" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="R3" s="381"/>
       <c r="S3" s="382"/>
       <c r="T3" s="387" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="U3" s="388"/>
       <c r="V3" s="391"/>
       <c r="W3" s="392" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="X3" s="256"/>
       <c r="Y3" s="256"/>
@@ -12940,70 +12940,70 @@
     </row>
     <row r="4" spans="1:30" s="148" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="258" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B4" s="259" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C4" s="260" t="s">
+        <v>112</v>
+      </c>
+      <c r="D4" s="261" t="s">
         <v>113</v>
       </c>
-      <c r="D4" s="261" t="s">
+      <c r="E4" s="259" t="s">
         <v>114</v>
       </c>
-      <c r="E4" s="259" t="s">
-        <v>115</v>
-      </c>
       <c r="F4" s="260" t="s">
+        <v>112</v>
+      </c>
+      <c r="G4" s="262" t="s">
         <v>113</v>
       </c>
-      <c r="G4" s="262" t="s">
+      <c r="H4" s="263" t="s">
         <v>114</v>
       </c>
-      <c r="H4" s="263" t="s">
-        <v>115</v>
-      </c>
       <c r="I4" s="264" t="s">
+        <v>112</v>
+      </c>
+      <c r="J4" s="265" t="s">
         <v>113</v>
       </c>
-      <c r="J4" s="265" t="s">
+      <c r="K4" s="266" t="s">
         <v>114</v>
       </c>
-      <c r="K4" s="266" t="s">
-        <v>115</v>
-      </c>
       <c r="L4" s="264" t="s">
+        <v>112</v>
+      </c>
+      <c r="M4" s="262" t="s">
         <v>113</v>
       </c>
-      <c r="M4" s="262" t="s">
+      <c r="N4" s="266" t="s">
         <v>114</v>
       </c>
-      <c r="N4" s="266" t="s">
-        <v>115</v>
-      </c>
       <c r="O4" s="264" t="s">
+        <v>112</v>
+      </c>
+      <c r="P4" s="262" t="s">
         <v>113</v>
       </c>
-      <c r="P4" s="262" t="s">
+      <c r="Q4" s="266" t="s">
         <v>114</v>
       </c>
-      <c r="Q4" s="266" t="s">
-        <v>115</v>
-      </c>
       <c r="R4" s="264" t="s">
+        <v>112</v>
+      </c>
+      <c r="S4" s="262" t="s">
         <v>113</v>
       </c>
-      <c r="S4" s="262" t="s">
+      <c r="T4" s="266" t="s">
         <v>114</v>
       </c>
-      <c r="T4" s="266" t="s">
-        <v>115</v>
-      </c>
       <c r="U4" s="264" t="s">
+        <v>112</v>
+      </c>
+      <c r="V4" s="267" t="s">
         <v>113</v>
-      </c>
-      <c r="V4" s="267" t="s">
-        <v>114</v>
       </c>
       <c r="W4" s="393"/>
       <c r="X4" s="256"/>
@@ -13730,7 +13730,7 @@
     </row>
     <row r="26" spans="1:30" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="309" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B26" s="310"/>
       <c r="C26" s="311"/>
@@ -14121,7 +14121,7 @@
   <sheetData>
     <row r="1" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="370" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B1" s="370"/>
       <c r="C1" s="370"/>
@@ -14148,7 +14148,7 @@
     </row>
     <row r="2" spans="1:23" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="401" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B2" s="401"/>
       <c r="C2" s="401"/>
@@ -14178,110 +14178,110 @@
     <row r="3" spans="1:23" s="148" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="243"/>
       <c r="B3" s="396" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C3" s="397"/>
       <c r="D3" s="398"/>
       <c r="E3" s="396" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F3" s="397"/>
       <c r="G3" s="398"/>
       <c r="H3" s="396" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I3" s="397"/>
       <c r="J3" s="398"/>
       <c r="K3" s="396" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L3" s="397"/>
       <c r="M3" s="398"/>
       <c r="N3" s="396" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="O3" s="397"/>
       <c r="P3" s="398"/>
       <c r="Q3" s="396" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="R3" s="397"/>
       <c r="S3" s="398"/>
       <c r="T3" s="396" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="U3" s="397"/>
       <c r="V3" s="398"/>
       <c r="W3" s="399" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="4" spans="1:23" s="148" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="218" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B4" s="219" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C4" s="222" t="s">
+        <v>112</v>
+      </c>
+      <c r="D4" s="220" t="s">
         <v>113</v>
       </c>
-      <c r="D4" s="220" t="s">
+      <c r="E4" s="219" t="s">
         <v>114</v>
       </c>
-      <c r="E4" s="219" t="s">
-        <v>115</v>
-      </c>
       <c r="F4" s="222" t="s">
+        <v>112</v>
+      </c>
+      <c r="G4" s="221" t="s">
         <v>113</v>
       </c>
-      <c r="G4" s="221" t="s">
+      <c r="H4" s="178" t="s">
         <v>114</v>
       </c>
-      <c r="H4" s="178" t="s">
-        <v>115</v>
-      </c>
       <c r="I4" s="224" t="s">
+        <v>112</v>
+      </c>
+      <c r="J4" s="220" t="s">
         <v>113</v>
       </c>
-      <c r="J4" s="220" t="s">
+      <c r="K4" s="178" t="s">
         <v>114</v>
       </c>
-      <c r="K4" s="178" t="s">
-        <v>115</v>
-      </c>
       <c r="L4" s="224" t="s">
+        <v>112</v>
+      </c>
+      <c r="M4" s="221" t="s">
         <v>113</v>
       </c>
-      <c r="M4" s="221" t="s">
+      <c r="N4" s="178" t="s">
         <v>114</v>
       </c>
-      <c r="N4" s="178" t="s">
-        <v>115</v>
-      </c>
       <c r="O4" s="224" t="s">
+        <v>112</v>
+      </c>
+      <c r="P4" s="221" t="s">
         <v>113</v>
       </c>
-      <c r="P4" s="221" t="s">
+      <c r="Q4" s="178" t="s">
         <v>114</v>
       </c>
-      <c r="Q4" s="178" t="s">
-        <v>115</v>
-      </c>
       <c r="R4" s="224" t="s">
+        <v>112</v>
+      </c>
+      <c r="S4" s="221" t="s">
         <v>113</v>
       </c>
-      <c r="S4" s="221" t="s">
+      <c r="T4" s="178" t="s">
         <v>114</v>
       </c>
-      <c r="T4" s="178" t="s">
-        <v>115</v>
-      </c>
       <c r="U4" s="224" t="s">
+        <v>112</v>
+      </c>
+      <c r="V4" s="221" t="s">
         <v>113</v>
-      </c>
-      <c r="V4" s="221" t="s">
-        <v>114</v>
       </c>
       <c r="W4" s="400"/>
     </row>
@@ -14395,7 +14395,7 @@
     </row>
     <row r="9" spans="1:23" s="63" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="250" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B9" s="248"/>
       <c r="C9" s="248"/>
@@ -14841,7 +14841,7 @@
     </row>
     <row r="3" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="370" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B3" s="370"/>
       <c r="C3" s="370"/>
@@ -14883,14 +14883,14 @@
     </row>
     <row r="5" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="150" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B5" s="405" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C5" s="405"/>
       <c r="D5" s="150" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E5" s="404">
         <v>1999091953</v>
@@ -14910,14 +14910,14 @@
     </row>
     <row r="6" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="150" t="s">
+        <v>160</v>
+      </c>
+      <c r="B6" s="405" t="s">
         <v>161</v>
-      </c>
-      <c r="B6" s="405" t="s">
-        <v>162</v>
       </c>
       <c r="C6" s="405"/>
       <c r="D6" s="166" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E6" s="406">
         <v>1777649917</v>
@@ -14940,24 +14940,24 @@
         <v>12</v>
       </c>
       <c r="B7" s="318" t="s">
+        <v>156</v>
+      </c>
+      <c r="C7" s="318" t="s">
+        <v>58</v>
+      </c>
+      <c r="D7" s="318" t="s">
+        <v>57</v>
+      </c>
+      <c r="E7" s="318" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" s="318" t="s">
         <v>157</v>
-      </c>
-      <c r="C7" s="318" t="s">
-        <v>59</v>
-      </c>
-      <c r="D7" s="318" t="s">
-        <v>58</v>
-      </c>
-      <c r="E7" s="318" t="s">
-        <v>33</v>
-      </c>
-      <c r="F7" s="318" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="320" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B8" s="320">
         <v>25</v>
@@ -14973,7 +14973,7 @@
     </row>
     <row r="9" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="320" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B9" s="320">
         <v>10</v>
